--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="344">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1407,6 +1407,15 @@
   </si>
   <si>
     <t>00141 D</t>
+  </si>
+  <si>
+    <t>CASERA-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 23</t>
+  </si>
+  <si>
+    <t>NOMIINA # 24</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +2696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3186,11 +3195,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6198,23 +6202,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6224,21 +6228,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="289" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6253,14 +6257,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="H4" s="292" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="293"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6270,11 +6274,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7775,11 +7779,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="298">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="300">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7805,8 +7809,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="299"/>
+      <c r="N41" s="301"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8021,29 +8025,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="303"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="304">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="305"/>
+      <c r="M53" s="306">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="307"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8054,22 +8058,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="311"/>
+      <c r="K55" s="312">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="313"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8100,11 +8104,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="314">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="315"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8121,22 +8125,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="294"/>
+      <c r="K59" s="295">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="295"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -9571,8 +9575,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9591,27 +9595,27 @@
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="244" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9621,21 +9625,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="289" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9650,14 +9654,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="H4" s="292" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="293"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -9667,11 +9671,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9680,30 +9684,37 @@
       <c r="B5" s="25">
         <v>44711</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28">
         <v>44711</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29">
+        <v>68569</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="30">
         <v>44711</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31">
+        <v>92</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="182"/>
       <c r="L5" s="9"/>
       <c r="M5" s="32">
-        <v>0</v>
+        <f>56619+11000</f>
+        <v>67619</v>
       </c>
       <c r="N5" s="33">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>68569</v>
       </c>
       <c r="Q5" s="13">
         <f>P5-F5</f>
@@ -9716,58 +9727,75 @@
       <c r="B6" s="25">
         <v>44712</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
       <c r="D6" s="36"/>
       <c r="E6" s="28">
         <v>44712</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29">
+        <v>48343</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="30">
         <v>44712</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>10</v>
+      </c>
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="40"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <f>20000+40505</f>
+        <v>60505</v>
       </c>
       <c r="N6" s="33">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="34">
         <f t="shared" ref="P6:P34" si="0">N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>60715</v>
       </c>
       <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q40" si="1">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="184">
+        <v>12372</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="25">
         <v>44713</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="26">
+        <v>2830</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>341</v>
+      </c>
       <c r="E7" s="28">
         <v>44713</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="29">
+        <v>45188</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="30">
         <v>44713</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>87</v>
+      </c>
       <c r="J7" s="38"/>
       <c r="K7" s="42"/>
       <c r="L7" s="40"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <f>27271+15000</f>
+        <v>42271</v>
       </c>
       <c r="N7" s="33">
         <v>0</v>
@@ -9775,10 +9803,10 @@
       <c r="O7" s="2"/>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45188</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q7:Q40" si="1">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="9"/>
@@ -9788,101 +9816,132 @@
       <c r="B8" s="25">
         <v>44714</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
       <c r="D8" s="41"/>
       <c r="E8" s="28">
         <v>44714</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <v>70879</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="30">
         <v>44714</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>30</v>
+      </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="40"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <f>41633+40000</f>
+        <v>81633</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>1977</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83640</v>
       </c>
       <c r="Q8" s="13">
         <v>0</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="184">
+        <v>12761</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="25">
         <v>44715</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="26">
+        <v>12937</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="28">
         <v>44715</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29">
+        <v>99483</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="30">
         <v>44715</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>123</v>
+      </c>
       <c r="J9" s="38"/>
       <c r="K9" s="46"/>
       <c r="L9" s="40"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>61192+25000</f>
+        <v>86192</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="34">
-        <f>N9+M9+L9+I9+C9</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>99483</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="8"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="25">
         <v>44716</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
       <c r="D10" s="36"/>
       <c r="E10" s="28">
         <v>44716</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <v>104709</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="30">
         <v>44716</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="31">
+        <v>99</v>
+      </c>
+      <c r="J10" s="38">
+        <v>44716</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="L10" s="48">
+        <v>9483</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>35000+49514+675</f>
+        <v>85189</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>9938</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104709</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="1"/>
@@ -9898,36 +9957,43 @@
       <c r="B11" s="25">
         <v>44717</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
       <c r="D11" s="36"/>
       <c r="E11" s="28">
         <v>44717</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>122844</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="30">
         <v>44717</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
       <c r="J11" s="44"/>
       <c r="K11" s="49"/>
       <c r="L11" s="40"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <f>32526+90000</f>
+        <v>122526</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>122844</v>
       </c>
       <c r="Q11" s="13">
-        <f>P11-F11</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="8" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9936,22 +10002,31 @@
       <c r="B12" s="25">
         <v>44718</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="26">
+        <v>3600</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="28">
         <v>44718</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>87892</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="30">
         <v>44718</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>65</v>
+      </c>
       <c r="J12" s="38"/>
       <c r="K12" s="50"/>
       <c r="L12" s="40"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>36227+48000</f>
+        <v>84227</v>
       </c>
       <c r="N12" s="33">
         <v>0</v>
@@ -9959,43 +10034,52 @@
       <c r="O12" s="2"/>
       <c r="P12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87892</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="8"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="25">
         <v>44719</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="26">
+        <v>800</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>133</v>
+      </c>
       <c r="E13" s="28">
         <v>44719</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>72961</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="30">
         <v>44719</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>127</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>33794+20000</f>
+        <v>53794</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>18240</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72961</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="1"/>
@@ -10008,30 +10092,37 @@
       <c r="B14" s="25">
         <v>44720</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
       <c r="D14" s="51"/>
       <c r="E14" s="28">
         <v>44720</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <v>43378</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="30">
         <v>44720</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>60</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="45"/>
       <c r="L14" s="40"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <f>28218+15000</f>
+        <v>43218</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43378</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="1"/>
@@ -10044,70 +10135,86 @@
       <c r="B15" s="25">
         <v>44721</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
       <c r="D15" s="51"/>
       <c r="E15" s="28">
         <v>44721</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <v>74534</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="30">
         <v>44721</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>31</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="45"/>
       <c r="L15" s="40"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>15000+59275</f>
+        <v>74275</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74534</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="8"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="25">
         <v>44722</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="26">
+        <v>23100</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="28">
         <v>44722</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>137137</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="30">
         <v>44722</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>208</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>83015+30000</f>
+        <v>113015</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137137</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10116,20 +10223,34 @@
       <c r="B17" s="25">
         <v>44723</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="26">
+        <v>3430</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="28">
         <v>44723</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>91767</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30">
         <v>44723</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>60</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44723</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="L17" s="48">
+        <v>9500</v>
+      </c>
       <c r="M17" s="32">
         <v>0</v>
       </c>
@@ -10138,20 +10259,22 @@
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12990</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="8"/>
+        <v>-78777</v>
+      </c>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24"/>
       <c r="B18" s="25">
         <v>44724</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
       <c r="D18" s="36"/>
       <c r="E18" s="28">
         <v>44724</v>
@@ -10179,14 +10302,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="8"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
       <c r="B19" s="25">
         <v>44725</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
       <c r="D19" s="36"/>
       <c r="E19" s="28">
         <v>44725</v>
@@ -10215,14 +10340,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
       <c r="B20" s="25">
         <v>44726</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
       <c r="D20" s="36"/>
       <c r="E20" s="28">
         <v>44726</v>
@@ -10250,14 +10377,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="8"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
       <c r="B21" s="25">
         <v>44727</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
       <c r="D21" s="36"/>
       <c r="E21" s="28">
         <v>44727</v>
@@ -10285,14 +10414,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="8"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="25">
         <v>44728</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
       <c r="D22" s="36"/>
       <c r="E22" s="28">
         <v>44728</v>
@@ -10320,14 +10451,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="25">
         <v>44729</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
       <c r="D23" s="36"/>
       <c r="E23" s="28">
         <v>44729</v>
@@ -10355,14 +10488,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="8"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
       <c r="B24" s="25">
         <v>44730</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
       <c r="D24" s="41"/>
       <c r="E24" s="28">
         <v>44730</v>
@@ -10390,14 +10525,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R24" s="8"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
       <c r="B25" s="25">
         <v>44731</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
       <c r="D25" s="36"/>
       <c r="E25" s="28">
         <v>44731</v>
@@ -10428,14 +10565,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24"/>
       <c r="B26" s="25">
         <v>44732</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
       <c r="D26" s="36"/>
       <c r="E26" s="28">
         <v>44732</v>
@@ -10470,7 +10609,9 @@
       <c r="B27" s="25">
         <v>44733</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
       <c r="D27" s="41"/>
       <c r="E27" s="28">
         <v>44733</v>
@@ -10498,14 +10639,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="8"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24"/>
       <c r="B28" s="25">
         <v>44734</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
       <c r="D28" s="41"/>
       <c r="E28" s="28">
         <v>44734</v>
@@ -10533,14 +10676,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="25">
         <v>44735</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
       <c r="D29" s="71"/>
       <c r="E29" s="28">
         <v>44735</v>
@@ -10568,14 +10713,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="8"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
       <c r="B30" s="25">
         <v>44736</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
       <c r="D30" s="71"/>
       <c r="E30" s="28">
         <v>44736</v>
@@ -10603,14 +10750,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="8"/>
+      <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24"/>
       <c r="B31" s="25">
         <v>44737</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
       <c r="D31" s="83"/>
       <c r="E31" s="28">
         <v>44737</v>
@@ -10638,14 +10787,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
       <c r="B32" s="25">
         <v>44738</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
       <c r="D32" s="78"/>
       <c r="E32" s="28">
         <v>44738</v>
@@ -10673,7 +10824,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10682,7 +10833,9 @@
       <c r="B33" s="25">
         <v>44739</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
       <c r="D33" s="79"/>
       <c r="E33" s="28">
         <v>44739</v>
@@ -10706,18 +10859,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="8"/>
+      <c r="Q33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="25">
         <v>44740</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
       <c r="D34" s="78"/>
       <c r="E34" s="28">
         <v>44740</v>
@@ -10745,7 +10900,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="R34" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10754,7 +10909,9 @@
       <c r="B35" s="25">
         <v>44741</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
       <c r="D35" s="83"/>
       <c r="E35" s="28">
         <v>44741</v>
@@ -10781,14 +10938,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R35" s="8"/>
+      <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="25">
         <v>44742</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="26">
+        <v>0</v>
+      </c>
       <c r="D36" s="84"/>
       <c r="E36" s="28">
         <v>44742</v>
@@ -10815,14 +10974,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="8"/>
+      <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
       <c r="B37" s="25">
         <v>44743</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="26">
+        <v>0</v>
+      </c>
       <c r="D37" s="78"/>
       <c r="E37" s="28">
         <v>44743</v>
@@ -10855,7 +11016,9 @@
       <c r="B38" s="25">
         <v>44744</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="26">
+        <v>0</v>
+      </c>
       <c r="D38" s="79"/>
       <c r="E38" s="28">
         <v>44744</v>
@@ -10878,7 +11041,7 @@
       <c r="P38" s="34">
         <v>0</v>
       </c>
-      <c r="Q38" s="61">
+      <c r="Q38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10888,7 +11051,9 @@
       <c r="B39" s="25">
         <v>44745</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="26">
+        <v>0</v>
+      </c>
       <c r="D39" s="79"/>
       <c r="E39" s="28">
         <v>44745</v>
@@ -10900,7 +11065,7 @@
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="282"/>
+      <c r="K39" s="277"/>
       <c r="L39" s="75"/>
       <c r="M39" s="32">
         <v>0</v>
@@ -10929,21 +11094,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="298">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="305">
+        <v>914464</v>
+      </c>
+      <c r="N40" s="300">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>32904</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>0</v>
+        <v>1014040</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1014040</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10959,8 +11124,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="299"/>
+      <c r="N41" s="301"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -11133,7 +11298,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
+        <v>46697</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -11141,7 +11306,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>0</v>
+        <v>1067684</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -11149,7 +11314,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -11157,7 +11322,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>18983</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -11175,32 +11340,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="303"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="304">
         <f>I51+L51</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+        <v>19975</v>
+      </c>
+      <c r="L53" s="305"/>
+      <c r="M53" s="306">
         <f>N40+M40</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="312"/>
+        <v>947368</v>
+      </c>
+      <c r="N53" s="307"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>0</v>
+        <v>1001012</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -11208,22 +11373,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="311"/>
+      <c r="K55" s="312">
         <f>F57+F58+F59</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="318"/>
+        <v>1001012</v>
+      </c>
+      <c r="L55" s="313"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -11247,18 +11412,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>0</v>
+        <v>1001012</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="314">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="315"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -11273,22 +11438,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="293" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="294"/>
+      <c r="K59" s="295">
         <f>K55+K57</f>
-        <v>-149938.81</v>
-      </c>
-      <c r="L59" s="300"/>
+        <v>851073.19</v>
+      </c>
+      <c r="L59" s="295"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -11442,20 +11607,20 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14425,23 +14590,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14451,21 +14616,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="289" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14480,14 +14645,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="H4" s="292" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="293"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14497,11 +14662,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15985,11 +16150,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="321">
+      <c r="M40" s="316">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="300">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -16015,8 +16180,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="299"/>
+      <c r="N41" s="301"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16231,29 +16396,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="303"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="304">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="305"/>
+      <c r="M53" s="306">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="307"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -16264,22 +16429,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="311"/>
+      <c r="K55" s="312">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="313"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16310,11 +16475,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="314">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="315"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16331,22 +16496,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="294"/>
+      <c r="K59" s="295">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="295"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17815,23 +17980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17841,21 +18006,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="289" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17870,14 +18035,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="H4" s="292" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="293"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17887,11 +18052,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19188,10 +19353,10 @@
       <c r="J34" s="73">
         <v>44627</v>
       </c>
-      <c r="K34" s="277" t="s">
+      <c r="K34" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="L34" s="280">
+      <c r="L34" s="275">
         <v>1195.68</v>
       </c>
       <c r="M34" s="32">
@@ -19258,7 +19423,7 @@
       <c r="J36" s="73">
         <v>44645</v>
       </c>
-      <c r="K36" s="279" t="s">
+      <c r="K36" s="274" t="s">
         <v>318</v>
       </c>
       <c r="L36" s="80">
@@ -19293,7 +19458,7 @@
       <c r="J37" s="73">
         <v>44649</v>
       </c>
-      <c r="K37" s="278" t="s">
+      <c r="K37" s="273" t="s">
         <v>319</v>
       </c>
       <c r="L37" s="80">
@@ -19327,7 +19492,7 @@
       <c r="J38" s="73">
         <v>44649</v>
       </c>
-      <c r="K38" s="281" t="s">
+      <c r="K38" s="276" t="s">
         <v>190</v>
       </c>
       <c r="L38" s="80">
@@ -19389,11 +19554,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="298">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="300">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -19419,8 +19584,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="299"/>
+      <c r="N41" s="301"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19563,29 +19728,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="307" t="s">
+      <c r="H49" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="308"/>
+      <c r="I49" s="303"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="309">
+      <c r="K49" s="304">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="310"/>
-      <c r="M49" s="311">
+      <c r="L49" s="305"/>
+      <c r="M49" s="306">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="312"/>
+      <c r="N49" s="307"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="313" t="s">
+      <c r="D50" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="313"/>
+      <c r="E50" s="308"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -19596,22 +19761,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="314" t="s">
+      <c r="D51" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="314"/>
+      <c r="E51" s="309"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="315" t="s">
+      <c r="I51" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="316"/>
-      <c r="K51" s="317">
+      <c r="J51" s="311"/>
+      <c r="K51" s="312">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="318"/>
+      <c r="L51" s="313"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -19642,11 +19807,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="319">
+      <c r="K53" s="314">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="320"/>
+      <c r="L53" s="315"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -19663,22 +19828,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="296" t="s">
+      <c r="D55" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="297"/>
+      <c r="E55" s="292"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="298" t="s">
+      <c r="I55" s="293" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="299"/>
-      <c r="K55" s="300">
+      <c r="J55" s="294"/>
+      <c r="K55" s="295">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="300"/>
+      <c r="L55" s="295"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -21320,23 +21485,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21346,21 +21511,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="289" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21375,14 +21540,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="H4" s="292" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="293"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21392,11 +21557,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23040,11 +23205,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="303">
+      <c r="M40" s="298">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="300">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -23076,8 +23241,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="299"/>
+      <c r="N41" s="301"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23312,29 +23477,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="303"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="304">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="305"/>
+      <c r="M53" s="306">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="307"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -23345,22 +23510,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="311"/>
+      <c r="K55" s="312">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="313"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23391,11 +23556,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="314">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="315"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23412,22 +23577,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="294"/>
+      <c r="K59" s="295">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="295"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -25050,10 +25215,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25076,23 +25241,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="280" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="279"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25102,21 +25267,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="283"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="284"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="289" t="s">
         <v>38</v>
       </c>
     </row>
@@ -25131,14 +25296,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="H4" s="292" t="s">
+      <c r="F4" s="286"/>
+      <c r="H4" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="293"/>
+      <c r="I4" s="288"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -25148,11 +25313,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="296" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="290"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26207,7 +26372,7 @@
       <c r="B27" s="25">
         <v>44705</v>
       </c>
-      <c r="C27" s="274">
+      <c r="C27" s="26">
         <v>2800</v>
       </c>
       <c r="D27" s="41" t="s">
@@ -26216,14 +26381,14 @@
       <c r="E27" s="28">
         <v>44705</v>
       </c>
-      <c r="F27" s="272">
+      <c r="F27" s="29">
         <v>68453</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44705</v>
       </c>
-      <c r="I27" s="273">
+      <c r="I27" s="31">
         <v>43</v>
       </c>
       <c r="J27" s="67"/>
@@ -26254,21 +26419,21 @@
       <c r="B28" s="25">
         <v>44706</v>
       </c>
-      <c r="C28" s="274">
+      <c r="C28" s="26">
         <v>0</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="28">
         <v>44706</v>
       </c>
-      <c r="F28" s="272">
+      <c r="F28" s="29">
         <v>28820</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44706</v>
       </c>
-      <c r="I28" s="273">
+      <c r="I28" s="31">
         <v>1153</v>
       </c>
       <c r="J28" s="69"/>
@@ -26278,16 +26443,15 @@
         <f>16978+10000</f>
         <v>26978</v>
       </c>
-      <c r="N28" s="276">
+      <c r="N28" s="33">
         <v>689</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
         <v>28820</v>
       </c>
-      <c r="Q28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="Q28" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28">
@@ -26299,7 +26463,7 @@
       <c r="B29" s="25">
         <v>44707</v>
       </c>
-      <c r="C29" s="274">
+      <c r="C29" s="26">
         <v>20289</v>
       </c>
       <c r="D29" s="71" t="s">
@@ -26308,24 +26472,24 @@
       <c r="E29" s="28">
         <v>44707</v>
       </c>
-      <c r="F29" s="272">
+      <c r="F29" s="29">
         <v>65956</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44707</v>
       </c>
-      <c r="I29" s="273">
+      <c r="I29" s="31">
         <v>93</v>
       </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
-      <c r="M29" s="275">
+      <c r="M29" s="32">
         <f>20000+25531</f>
         <v>45531</v>
       </c>
-      <c r="N29" s="276">
+      <c r="N29" s="33">
         <v>43</v>
       </c>
       <c r="P29" s="34">
@@ -26684,7 +26848,7 @@
       <c r="J39" s="73">
         <v>44710</v>
       </c>
-      <c r="K39" s="282" t="s">
+      <c r="K39" s="277" t="s">
         <v>320</v>
       </c>
       <c r="L39" s="75">
@@ -26717,11 +26881,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="298">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="300">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -26747,8 +26911,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="299"/>
+      <c r="N41" s="301"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -26963,29 +27127,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="303"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="304">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="305"/>
+      <c r="M53" s="306">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="307"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="308"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -26996,22 +27160,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="311"/>
+      <c r="K55" s="312">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="313"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -27042,11 +27206,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="314">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="315"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -27063,22 +27227,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="293" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="294"/>
+      <c r="K59" s="295">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="295"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="356">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1416,6 +1416,55 @@
   </si>
   <si>
     <t>NOMIINA # 24</t>
+  </si>
+  <si>
+    <r>
+      <t>6-May-22---</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13-May-22</t>
+    </r>
+  </si>
+  <si>
+    <t>00238 D</t>
+  </si>
+  <si>
+    <t>00332 D</t>
+  </si>
+  <si>
+    <t>00499 D</t>
+  </si>
+  <si>
+    <t>00500 D</t>
+  </si>
+  <si>
+    <t>00639 D</t>
+  </si>
+  <si>
+    <t>00741 D</t>
+  </si>
+  <si>
+    <t>00887 D</t>
+  </si>
+  <si>
+    <t>00890 D</t>
+  </si>
+  <si>
+    <t>00955 D</t>
+  </si>
+  <si>
+    <t>00959 D</t>
+  </si>
+  <si>
+    <t>00960 D</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1479,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1839,6 +1888,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2696,7 +2753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3186,7 +3243,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3328,6 +3384,21 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="52" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3337,8 +3408,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF800000"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
@@ -6202,23 +6274,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6228,21 +6300,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6257,14 +6329,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6274,11 +6346,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="290"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7779,11 +7851,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="298">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="300">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7809,8 +7881,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="299"/>
-      <c r="N41" s="301"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8025,29 +8097,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="302" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="303"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="304">
+      <c r="K53" s="303">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="305"/>
-      <c r="M53" s="306">
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="307"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="308"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8058,22 +8130,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="309" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="309"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="310" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="311"/>
-      <c r="K55" s="312">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="313"/>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8104,11 +8176,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="314">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="315"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8125,22 +8197,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="291" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="293" t="s">
+      <c r="I59" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="294"/>
-      <c r="K59" s="295">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="295"/>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8318,10 +8390,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C41:C42"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8332,10 +8404,12 @@
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="117"/>
+    <col min="7" max="9" width="11.42578125" style="117"/>
+    <col min="10" max="10" width="22.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="209" t="s">
         <v>27</v>
       </c>
@@ -8347,7 +8421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="210" t="s">
         <v>22</v>
       </c>
@@ -8367,7 +8441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="264">
         <v>44683</v>
       </c>
@@ -8377,636 +8451,792 @@
       <c r="C3" s="266">
         <v>12615</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="266"/>
+      <c r="D3" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E3" s="318">
+        <v>12615</v>
+      </c>
       <c r="F3" s="158">
         <f>C3-E3</f>
-        <v>12615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="268">
+        <v>0</v>
+      </c>
+      <c r="J3" s="132"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="267">
         <v>44684</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="268" t="s">
         <v>282</v>
       </c>
       <c r="C4" s="132">
         <v>17596.349999999999</v>
       </c>
-      <c r="D4" s="270"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E4" s="319">
+        <v>17596.349999999999</v>
+      </c>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
-        <v>30211.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="268">
+        <v>0</v>
+      </c>
+      <c r="J4" s="132"/>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="267">
         <v>44684</v>
       </c>
-      <c r="B5" s="269" t="s">
+      <c r="B5" s="268" t="s">
         <v>283</v>
       </c>
       <c r="C5" s="132">
         <v>74815.3</v>
       </c>
-      <c r="D5" s="270"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E5" s="319">
+        <v>74815.3</v>
+      </c>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>105026.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="268">
+        <v>0</v>
+      </c>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="267">
         <v>44684</v>
       </c>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="268" t="s">
         <v>284</v>
       </c>
       <c r="C6" s="132">
         <v>41825.300000000003</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E6" s="319">
+        <v>41825.300000000003</v>
+      </c>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
-        <v>146851.95000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" s="162"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="268">
+      <c r="J6" s="132"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="267">
         <v>44685</v>
       </c>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="268" t="s">
         <v>285</v>
       </c>
       <c r="C7" s="132">
         <v>16650.34</v>
       </c>
-      <c r="D7" s="270"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E7" s="319">
+        <v>16650.34</v>
+      </c>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
-        <v>163502.29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="268">
+        <v>0</v>
+      </c>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="267">
         <v>44686</v>
       </c>
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="268" t="s">
         <v>286</v>
       </c>
       <c r="C8" s="132">
         <v>123347.09</v>
       </c>
-      <c r="D8" s="270"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E8" s="319">
+        <v>123347.09</v>
+      </c>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
-        <v>286849.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="268">
+        <v>0</v>
+      </c>
+      <c r="J8" s="132"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="267">
         <v>44686</v>
       </c>
-      <c r="B9" s="269" t="s">
+      <c r="B9" s="268" t="s">
         <v>287</v>
       </c>
       <c r="C9" s="132">
         <v>8068.6</v>
       </c>
-      <c r="D9" s="270"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="317">
+        <v>44687</v>
+      </c>
+      <c r="E9" s="319">
+        <v>8068.6</v>
+      </c>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
-        <v>294917.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="268">
+        <v>0</v>
+      </c>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="267">
         <v>44687</v>
       </c>
-      <c r="B10" s="269" t="s">
+      <c r="B10" s="268" t="s">
         <v>288</v>
       </c>
       <c r="C10" s="132">
         <v>150685.6</v>
       </c>
-      <c r="D10" s="270"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="320" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="319">
+        <f>108860.3+41825.3</f>
+        <v>150685.6</v>
+      </c>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
-        <v>445603.57999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="268">
+        <v>0</v>
+      </c>
+      <c r="J10" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="267">
         <v>44687</v>
       </c>
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="268" t="s">
         <v>289</v>
       </c>
       <c r="C11" s="132">
         <v>7806</v>
       </c>
-      <c r="D11" s="270"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E11" s="324">
+        <v>7806</v>
+      </c>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
-        <v>453409.57999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="268">
+        <v>0</v>
+      </c>
+      <c r="J11" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="267">
         <v>44688</v>
       </c>
-      <c r="B12" s="269" t="s">
+      <c r="B12" s="268" t="s">
         <v>290</v>
       </c>
       <c r="C12" s="132">
         <v>3240</v>
       </c>
-      <c r="D12" s="270"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E12" s="324">
+        <v>3240</v>
+      </c>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
-        <v>456649.57999999996</v>
+        <v>0</v>
       </c>
       <c r="G12" s="162"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="268">
+      <c r="J12" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="267">
         <v>44688</v>
       </c>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>291</v>
       </c>
       <c r="C13" s="132">
         <v>75100.639999999999</v>
       </c>
-      <c r="D13" s="270"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E13" s="324">
+        <v>75100.639999999999</v>
+      </c>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
-        <v>531750.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="268">
+        <v>0</v>
+      </c>
+      <c r="J13" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="267">
         <v>44690</v>
       </c>
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="268" t="s">
         <v>292</v>
       </c>
       <c r="C14" s="132">
         <v>119272.64</v>
       </c>
-      <c r="D14" s="270"/>
-      <c r="E14" s="132"/>
+      <c r="D14" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E14" s="324">
+        <v>119272.64</v>
+      </c>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
-        <v>651022.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="268">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f>SUM(J2:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="267">
         <v>44690</v>
       </c>
-      <c r="B15" s="269" t="s">
+      <c r="B15" s="268" t="s">
         <v>293</v>
       </c>
       <c r="C15" s="132">
         <v>1299.5999999999999</v>
       </c>
-      <c r="D15" s="270"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E15" s="324">
+        <v>1299.5999999999999</v>
+      </c>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
-        <v>652322.46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="267">
         <v>44690</v>
       </c>
-      <c r="B16" s="269" t="s">
+      <c r="B16" s="268" t="s">
         <v>294</v>
       </c>
       <c r="C16" s="132">
-        <v>259440</v>
-      </c>
-      <c r="D16" s="270"/>
-      <c r="E16" s="132"/>
+        <v>25944</v>
+      </c>
+      <c r="D16" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E16" s="324">
+        <v>25944</v>
+      </c>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
-        <v>911762.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="268">
+      <c r="A17" s="267">
         <v>44692</v>
       </c>
-      <c r="B17" s="269" t="s">
+      <c r="B17" s="268" t="s">
         <v>295</v>
       </c>
       <c r="C17" s="132">
         <v>111401.12</v>
       </c>
-      <c r="D17" s="270"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E17" s="324">
+        <v>111401.12</v>
+      </c>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
-        <v>1023163.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="268">
+      <c r="A18" s="267">
         <v>44693</v>
       </c>
-      <c r="B18" s="269" t="s">
+      <c r="B18" s="268" t="s">
         <v>296</v>
       </c>
       <c r="C18" s="132">
         <v>35804.199999999997</v>
       </c>
-      <c r="D18" s="270"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="321">
+        <v>44694</v>
+      </c>
+      <c r="E18" s="324">
+        <v>35804.199999999997</v>
+      </c>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
-        <v>1058967.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="268">
+      <c r="A19" s="267">
         <v>44694</v>
       </c>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="268" t="s">
         <v>297</v>
       </c>
       <c r="C19" s="132">
         <v>1607.16</v>
       </c>
-      <c r="D19" s="270"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E19" s="326">
+        <v>1607.16</v>
+      </c>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
-        <v>1060574.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="268">
+      <c r="A20" s="267">
         <v>44694</v>
       </c>
-      <c r="B20" s="269" t="s">
+      <c r="B20" s="268" t="s">
         <v>298</v>
       </c>
       <c r="C20" s="132">
         <v>110870.6</v>
       </c>
-      <c r="D20" s="270"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E20" s="326">
+        <v>110870.6</v>
+      </c>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
-        <v>1171445.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="268">
+      <c r="A21" s="267">
         <v>44695</v>
       </c>
-      <c r="B21" s="269" t="s">
+      <c r="B21" s="268" t="s">
         <v>299</v>
       </c>
       <c r="C21" s="132">
         <v>130766.36</v>
       </c>
-      <c r="D21" s="270"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E21" s="326">
+        <v>130766.36</v>
+      </c>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
-        <v>1302211.9000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="268">
+      <c r="A22" s="267">
         <v>44697</v>
       </c>
-      <c r="B22" s="269" t="s">
+      <c r="B22" s="268" t="s">
         <v>300</v>
       </c>
       <c r="C22" s="132">
         <v>114866.53</v>
       </c>
-      <c r="D22" s="270"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E22" s="326">
+        <v>114866.53</v>
+      </c>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
-        <v>1417078.4300000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="268">
+      <c r="A23" s="267">
         <v>44698</v>
       </c>
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="268" t="s">
         <v>301</v>
       </c>
       <c r="C23" s="132">
         <v>6227.2</v>
       </c>
-      <c r="D23" s="270"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E23" s="326">
+        <v>6227.2</v>
+      </c>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
-        <v>1423305.6300000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="268">
+      <c r="A24" s="267">
         <v>44699</v>
       </c>
-      <c r="B24" s="269" t="s">
+      <c r="B24" s="268" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="132">
         <v>66522.98</v>
       </c>
-      <c r="D24" s="270"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E24" s="326">
+        <v>66522.98</v>
+      </c>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
-        <v>1489828.61</v>
+        <v>0</v>
       </c>
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="268">
+      <c r="A25" s="267">
         <v>44700</v>
       </c>
-      <c r="B25" s="269" t="s">
+      <c r="B25" s="268" t="s">
         <v>303</v>
       </c>
       <c r="C25" s="132">
         <v>98570.79</v>
       </c>
-      <c r="D25" s="270"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="325">
+        <v>44701</v>
+      </c>
+      <c r="E25" s="326">
+        <v>98570.79</v>
+      </c>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
-        <v>1588399.4000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="268">
+      <c r="A26" s="267">
         <v>44702</v>
       </c>
-      <c r="B26" s="269" t="s">
+      <c r="B26" s="268" t="s">
         <v>304</v>
       </c>
       <c r="C26" s="132">
         <v>94991.4</v>
       </c>
-      <c r="D26" s="270"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E26" s="132">
+        <v>94991.4</v>
+      </c>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>1683390.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="268">
+      <c r="A27" s="267">
         <v>44702</v>
       </c>
-      <c r="B27" s="269" t="s">
+      <c r="B27" s="268" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="132">
         <v>39581.199999999997</v>
       </c>
-      <c r="D27" s="270"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E27" s="132">
+        <v>39581.199999999997</v>
+      </c>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>1722972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="268">
+      <c r="A28" s="267">
         <v>44702</v>
       </c>
-      <c r="B28" s="269" t="s">
+      <c r="B28" s="268" t="s">
         <v>306</v>
       </c>
       <c r="C28" s="132">
         <v>83382</v>
       </c>
-      <c r="D28" s="270"/>
-      <c r="E28" s="132"/>
+      <c r="D28" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E28" s="132">
+        <v>83382</v>
+      </c>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>1806354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="268">
+      <c r="A29" s="267">
         <v>44702</v>
       </c>
-      <c r="B29" s="269" t="s">
+      <c r="B29" s="268" t="s">
         <v>307</v>
       </c>
       <c r="C29" s="132">
         <v>1534.4</v>
       </c>
-      <c r="D29" s="270"/>
-      <c r="E29" s="132"/>
+      <c r="D29" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E29" s="132">
+        <v>1534.4</v>
+      </c>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>1807888.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="268">
+      <c r="A30" s="267">
         <v>44704</v>
       </c>
-      <c r="B30" s="269" t="s">
+      <c r="B30" s="268" t="s">
         <v>308</v>
       </c>
       <c r="C30" s="132">
         <v>58225.08</v>
       </c>
-      <c r="D30" s="268"/>
-      <c r="E30" s="132"/>
+      <c r="D30" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E30" s="132">
+        <v>58225.08</v>
+      </c>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>1866113.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="268">
+      <c r="A31" s="267">
         <v>44705</v>
       </c>
-      <c r="B31" s="269" t="s">
+      <c r="B31" s="268" t="s">
         <v>309</v>
       </c>
       <c r="C31" s="132">
         <v>24879.42</v>
       </c>
-      <c r="D31" s="270"/>
-      <c r="E31" s="132"/>
+      <c r="D31" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E31" s="132">
+        <v>24879.42</v>
+      </c>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>1890992.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="268">
+      <c r="A32" s="267">
         <v>44705</v>
       </c>
-      <c r="B32" s="269" t="s">
+      <c r="B32" s="268" t="s">
         <v>310</v>
       </c>
       <c r="C32" s="132">
         <v>480</v>
       </c>
-      <c r="D32" s="270"/>
-      <c r="E32" s="132"/>
+      <c r="D32" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E32" s="132">
+        <v>480</v>
+      </c>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>1891472.9</v>
+        <v>0</v>
       </c>
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="268">
+      <c r="A33" s="267">
         <v>44706</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="268" t="s">
         <v>314</v>
       </c>
       <c r="C33" s="132">
         <v>74281.539999999994</v>
       </c>
-      <c r="D33" s="270"/>
-      <c r="E33" s="132"/>
+      <c r="D33" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E33" s="132">
+        <v>74281.539999999994</v>
+      </c>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>1965754.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="268">
+      <c r="A34" s="267">
         <v>44707</v>
       </c>
-      <c r="B34" s="269" t="s">
+      <c r="B34" s="268" t="s">
         <v>315</v>
       </c>
       <c r="C34" s="132">
         <v>152351.15</v>
       </c>
-      <c r="D34" s="270"/>
-      <c r="E34" s="132"/>
+      <c r="D34" s="269">
+        <v>44708</v>
+      </c>
+      <c r="E34" s="132">
+        <v>152351.15</v>
+      </c>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>2118105.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="268">
+      <c r="A35" s="267">
         <v>44709</v>
       </c>
-      <c r="B35" s="269" t="s">
+      <c r="B35" s="268" t="s">
         <v>316</v>
       </c>
       <c r="C35" s="132">
         <v>133819.06</v>
       </c>
-      <c r="D35" s="270"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="322">
+        <v>44715</v>
+      </c>
+      <c r="E35" s="323">
+        <v>133819.06</v>
+      </c>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="268"/>
-      <c r="B36" s="269"/>
+      <c r="A36" s="267"/>
+      <c r="B36" s="268"/>
       <c r="C36" s="132"/>
-      <c r="D36" s="270"/>
+      <c r="D36" s="269"/>
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="268"/>
-      <c r="B37" s="269"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="268"/>
       <c r="C37" s="132"/>
-      <c r="D37" s="270"/>
+      <c r="D37" s="269"/>
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="268"/>
-      <c r="B38" s="269"/>
+      <c r="A38" s="267"/>
+      <c r="B38" s="268"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="270"/>
+      <c r="D38" s="269"/>
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="268"/>
-      <c r="B39" s="269"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="268"/>
       <c r="C39" s="132"/>
-      <c r="D39" s="270"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="268"/>
-      <c r="B40" s="269"/>
+      <c r="A40" s="267"/>
+      <c r="B40" s="268"/>
       <c r="C40" s="132"/>
-      <c r="D40" s="270"/>
+      <c r="D40" s="269"/>
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="268"/>
-      <c r="B41" s="269"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="268"/>
       <c r="C41" s="132"/>
-      <c r="D41" s="270"/>
+      <c r="D41" s="269"/>
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="270"/>
-      <c r="B42" s="271"/>
+      <c r="A42" s="269"/>
+      <c r="B42" s="270"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="270"/>
+      <c r="D42" s="269"/>
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9017,7 +9247,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9028,7 +9258,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9039,7 +9269,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9050,7 +9280,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9061,7 +9291,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9072,7 +9302,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9083,7 +9313,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9094,7 +9324,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9105,7 +9335,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9116,7 +9346,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9127,7 +9357,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9138,7 +9368,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9149,7 +9379,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9160,7 +9390,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9171,7 +9401,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9182,7 +9412,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9193,7 +9423,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9204,7 +9434,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9215,7 +9445,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9226,7 +9456,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9237,7 +9467,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9248,7 +9478,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9259,7 +9489,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9270,7 +9500,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9281,7 +9511,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9292,7 +9522,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9303,7 +9533,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9314,7 +9544,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9325,7 +9555,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9336,7 +9566,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9347,7 +9577,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9358,7 +9588,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9369,7 +9599,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9380,7 +9610,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9391,7 +9621,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9404,7 +9634,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -9412,16 +9642,16 @@
       <c r="B79" s="232"/>
       <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>2251924.65</v>
+        <v>2018428.6499999997</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>2018428.6499999997</v>
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>2251924.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -9575,8 +9805,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9599,23 +9829,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9625,21 +9855,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9654,14 +9884,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -9671,11 +9901,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="290"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -10252,18 +10482,19 @@
         <v>9500</v>
       </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>25000+43046</f>
+        <v>68046</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>10731</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>12990</v>
+        <v>91767</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="1"/>
-        <v>-78777</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9"/>
     </row>
@@ -10279,24 +10510,29 @@
       <c r="E18" s="28">
         <v>44724</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>131350</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30">
         <v>44724</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>60</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>80000+35000+13118</f>
+        <v>128118</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>3172</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131350</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="1"/>
@@ -10316,25 +10552,30 @@
       <c r="E19" s="28">
         <v>44725</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>61432</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30">
         <v>44725</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>33</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>43973+17000</f>
+        <v>60973</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61432</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="1"/>
@@ -11065,7 +11306,7 @@
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
-      <c r="K39" s="277"/>
+      <c r="K39" s="276"/>
       <c r="L39" s="75"/>
       <c r="M39" s="32">
         <v>0</v>
@@ -11094,21 +11335,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="298">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
-        <v>914464</v>
-      </c>
-      <c r="N40" s="300">
+        <v>1171601</v>
+      </c>
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
-        <v>32904</v>
+        <v>47233</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1014040</v>
+        <v>1285599</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1014040</v>
+        <v>1285599</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11124,8 +11365,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="299"/>
-      <c r="N41" s="301"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -11306,7 +11547,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1067684</v>
+        <v>1260466</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -11314,7 +11555,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>992</v>
+        <v>1085</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -11340,32 +11581,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="302" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="303"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="304">
+      <c r="K53" s="303">
         <f>I51+L51</f>
-        <v>19975</v>
-      </c>
-      <c r="L53" s="305"/>
-      <c r="M53" s="306">
+        <v>20068</v>
+      </c>
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
-        <v>947368</v>
-      </c>
-      <c r="N53" s="307"/>
+        <v>1218834</v>
+      </c>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="308"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1001012</v>
+        <v>1193701</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -11373,22 +11614,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="309" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="309"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="310" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="311"/>
-      <c r="K55" s="312">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
-        <v>1001012</v>
-      </c>
-      <c r="L55" s="313"/>
+        <v>1193701</v>
+      </c>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -11412,18 +11653,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1001012</v>
+        <v>1193701</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="314">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="315"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -11438,22 +11679,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="291" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="293" t="s">
+      <c r="I59" s="292" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="294"/>
-      <c r="K59" s="295">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
-        <v>851073.19</v>
-      </c>
-      <c r="L59" s="295"/>
+        <v>1043762.19</v>
+      </c>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -11634,10 +11875,10 @@
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11648,10 +11889,12 @@
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="117"/>
+    <col min="7" max="9" width="11.42578125" style="117"/>
+    <col min="10" max="11" width="17.140625" style="117" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="209" t="s">
         <v>27</v>
       </c>
@@ -11663,7 +11906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="210" t="s">
         <v>22</v>
       </c>
@@ -11683,7 +11926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="264">
         <v>44711</v>
       </c>
@@ -11693,522 +11936,662 @@
       <c r="C3" s="266">
         <v>180946.3</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="266"/>
+      <c r="D3" s="327">
+        <v>44715</v>
+      </c>
+      <c r="E3" s="328">
+        <v>180946.3</v>
+      </c>
       <c r="F3" s="158">
         <f>C3-E3</f>
-        <v>180946.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="268">
+        <v>0</v>
+      </c>
+      <c r="J3" s="132"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="267">
         <v>44711</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="268" t="s">
         <v>328</v>
       </c>
       <c r="C4" s="132">
         <v>1893.9</v>
       </c>
-      <c r="D4" s="270"/>
-      <c r="E4" s="132"/>
+      <c r="D4" s="327">
+        <v>44715</v>
+      </c>
+      <c r="E4" s="323">
+        <v>1893.9</v>
+      </c>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
-        <v>182840.19999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="268">
+        <v>0</v>
+      </c>
+      <c r="J4" s="266"/>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="267">
         <v>44712</v>
       </c>
-      <c r="B5" s="269" t="s">
+      <c r="B5" s="268" t="s">
         <v>329</v>
       </c>
       <c r="C5" s="132">
         <v>19341.099999999999</v>
       </c>
-      <c r="D5" s="270"/>
-      <c r="E5" s="132"/>
+      <c r="D5" s="327">
+        <v>44715</v>
+      </c>
+      <c r="E5" s="323">
+        <v>19341.099999999999</v>
+      </c>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>202181.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="268">
+        <v>0</v>
+      </c>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="267">
         <v>44713</v>
       </c>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="268" t="s">
         <v>330</v>
       </c>
       <c r="C6" s="132">
         <v>138862.93</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="132"/>
+      <c r="D6" s="327">
+        <v>44715</v>
+      </c>
+      <c r="E6" s="323">
+        <v>138862.93</v>
+      </c>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
-        <v>341044.23</v>
+        <v>0</v>
       </c>
       <c r="G6" s="162"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="268">
+      <c r="J6" s="132"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="267">
         <v>44714</v>
       </c>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="268" t="s">
         <v>331</v>
       </c>
       <c r="C7" s="132">
         <v>92111.02</v>
       </c>
-      <c r="D7" s="270"/>
-      <c r="E7" s="132"/>
+      <c r="D7" s="327">
+        <v>44715</v>
+      </c>
+      <c r="E7" s="323">
+        <v>92111.02</v>
+      </c>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
-        <v>433155.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="268">
+        <v>0</v>
+      </c>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="267">
         <v>44715</v>
       </c>
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="268" t="s">
         <v>332</v>
       </c>
       <c r="C8" s="132">
         <v>124289.28</v>
       </c>
-      <c r="D8" s="270"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E8" s="132">
+        <v>124289.28</v>
+      </c>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
-        <v>557444.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="268">
+        <v>0</v>
+      </c>
+      <c r="J8" s="132"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="267">
         <v>44716</v>
       </c>
-      <c r="B9" s="269" t="s">
+      <c r="B9" s="268" t="s">
         <v>333</v>
       </c>
       <c r="C9" s="132">
         <v>79461.100000000006</v>
       </c>
-      <c r="D9" s="270"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E9" s="132">
+        <v>79461.100000000006</v>
+      </c>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
-        <v>636905.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="268">
+        <v>0</v>
+      </c>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="267">
         <v>44716</v>
       </c>
-      <c r="B10" s="269" t="s">
+      <c r="B10" s="268" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="132">
         <v>3658</v>
       </c>
-      <c r="D10" s="270"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E10" s="132">
+        <v>3658</v>
+      </c>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
-        <v>640563.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="268">
+        <v>0</v>
+      </c>
+      <c r="J10" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="267">
         <v>44718</v>
       </c>
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="268" t="s">
         <v>335</v>
       </c>
       <c r="C11" s="132">
         <v>3089.44</v>
       </c>
-      <c r="D11" s="270"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E11" s="132">
+        <v>3089.44</v>
+      </c>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
-        <v>643653.06999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="268">
+        <v>0</v>
+      </c>
+      <c r="J11" s="316">
+        <f>SUM(J3:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="267">
         <v>44718</v>
       </c>
-      <c r="B12" s="269" t="s">
+      <c r="B12" s="268" t="s">
         <v>336</v>
       </c>
       <c r="C12" s="132">
         <v>93919.32</v>
       </c>
-      <c r="D12" s="270"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E12" s="132">
+        <v>93919.32</v>
+      </c>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
-        <v>737572.3899999999</v>
+        <v>0</v>
       </c>
       <c r="G12" s="162"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="268">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="267">
         <v>44718</v>
       </c>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="268" t="s">
         <v>337</v>
       </c>
       <c r="C13" s="132">
         <v>8582.7000000000007</v>
       </c>
-      <c r="D13" s="270"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E13" s="132">
+        <v>8582.7000000000007</v>
+      </c>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
-        <v>746155.08999999985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="267">
         <v>44719</v>
       </c>
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="268" t="s">
         <v>338</v>
       </c>
       <c r="C14" s="132">
         <v>46680.3</v>
       </c>
-      <c r="D14" s="270"/>
-      <c r="E14" s="132"/>
+      <c r="D14" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E14" s="132">
+        <v>46680.3</v>
+      </c>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
-        <v>792835.3899999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="267">
         <v>44720</v>
       </c>
-      <c r="B15" s="269" t="s">
+      <c r="B15" s="268" t="s">
         <v>339</v>
       </c>
       <c r="C15" s="132">
         <v>112979.51</v>
       </c>
-      <c r="D15" s="270"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E15" s="132">
+        <v>112979.51</v>
+      </c>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
-        <v>905814.89999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="267">
         <v>44721</v>
       </c>
-      <c r="B16" s="269" t="s">
+      <c r="B16" s="268" t="s">
         <v>340</v>
       </c>
       <c r="C16" s="132">
         <v>132421.28</v>
       </c>
-      <c r="D16" s="270"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E16" s="132">
+        <v>132421.28</v>
+      </c>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="132"/>
+      <c r="A17" s="267">
+        <v>44722</v>
+      </c>
+      <c r="B17" s="268" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="132">
+        <v>6456</v>
+      </c>
+      <c r="D17" s="269">
+        <v>44722</v>
+      </c>
+      <c r="E17" s="132">
+        <v>6456</v>
+      </c>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="270"/>
+      <c r="A18" s="267">
+        <v>44723</v>
+      </c>
+      <c r="B18" s="268" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="132">
+        <v>141561.31</v>
+      </c>
+      <c r="D18" s="269"/>
       <c r="E18" s="132"/>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>141561.31</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="268"/>
-      <c r="B19" s="269"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="270"/>
+      <c r="A19" s="267">
+        <v>44725</v>
+      </c>
+      <c r="B19" s="268" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="132">
+        <v>88357.89</v>
+      </c>
+      <c r="D19" s="269"/>
       <c r="E19" s="132"/>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>229919.2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="268"/>
-      <c r="B20" s="269"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="270"/>
+      <c r="A20" s="267">
+        <v>44725</v>
+      </c>
+      <c r="B20" s="268" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="132">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="269"/>
       <c r="E20" s="132"/>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>231719.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="268"/>
-      <c r="B21" s="269"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="270"/>
+      <c r="A21" s="267">
+        <v>44726</v>
+      </c>
+      <c r="B21" s="268" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="132">
+        <v>124846.39999999999</v>
+      </c>
+      <c r="D21" s="269"/>
       <c r="E21" s="132"/>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>356565.6</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="268"/>
-      <c r="B22" s="269"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="270"/>
+      <c r="A22" s="267">
+        <v>44727</v>
+      </c>
+      <c r="B22" s="268" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="132">
+        <v>30517.4</v>
+      </c>
+      <c r="D22" s="269"/>
       <c r="E22" s="132"/>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>387083</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="268"/>
-      <c r="B23" s="269"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="270"/>
+      <c r="A23" s="267">
+        <v>44728</v>
+      </c>
+      <c r="B23" s="268" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="132">
+        <v>105168.4</v>
+      </c>
+      <c r="D23" s="269"/>
       <c r="E23" s="132"/>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>492251.4</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="268"/>
-      <c r="B24" s="269"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="270"/>
+      <c r="A24" s="267">
+        <v>44728</v>
+      </c>
+      <c r="B24" s="268" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="132">
+        <v>1901.8</v>
+      </c>
+      <c r="D24" s="269"/>
       <c r="E24" s="132"/>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>494153.2</v>
       </c>
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="268"/>
-      <c r="B25" s="269"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="270"/>
+      <c r="A25" s="267">
+        <v>44729</v>
+      </c>
+      <c r="B25" s="268" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="132">
+        <v>21748.2</v>
+      </c>
+      <c r="D25" s="269"/>
       <c r="E25" s="132"/>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>515901.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="268"/>
-      <c r="B26" s="269"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="270"/>
+      <c r="A26" s="267">
+        <v>44729</v>
+      </c>
+      <c r="B26" s="268" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="132">
+        <v>63869.33</v>
+      </c>
+      <c r="D26" s="269"/>
       <c r="E26" s="132"/>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>579770.73</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="268"/>
-      <c r="B27" s="269"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="270"/>
+      <c r="A27" s="267">
+        <v>44729</v>
+      </c>
+      <c r="B27" s="268" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="132">
+        <v>2726.4</v>
+      </c>
+      <c r="D27" s="269"/>
       <c r="E27" s="132"/>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="268"/>
-      <c r="B28" s="269"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="268"/>
       <c r="C28" s="132"/>
-      <c r="D28" s="270"/>
+      <c r="D28" s="269"/>
       <c r="E28" s="132"/>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="268"/>
-      <c r="B29" s="269"/>
+      <c r="A29" s="267"/>
+      <c r="B29" s="268"/>
       <c r="C29" s="132"/>
-      <c r="D29" s="270"/>
+      <c r="D29" s="269"/>
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="268"/>
-      <c r="B30" s="269"/>
+      <c r="A30" s="267"/>
+      <c r="B30" s="268"/>
       <c r="C30" s="132"/>
-      <c r="D30" s="268"/>
+      <c r="D30" s="267"/>
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="268"/>
-      <c r="B31" s="269"/>
+      <c r="A31" s="267"/>
+      <c r="B31" s="268"/>
       <c r="C31" s="132"/>
-      <c r="D31" s="270"/>
+      <c r="D31" s="269"/>
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="268"/>
-      <c r="B32" s="269"/>
+      <c r="A32" s="267"/>
+      <c r="B32" s="268"/>
       <c r="C32" s="132"/>
-      <c r="D32" s="270"/>
+      <c r="D32" s="269"/>
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
+      <c r="A33" s="267"/>
+      <c r="B33" s="268"/>
       <c r="C33" s="132"/>
-      <c r="D33" s="270"/>
+      <c r="D33" s="269"/>
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="268"/>
-      <c r="B34" s="269"/>
+      <c r="A34" s="267"/>
+      <c r="B34" s="268"/>
       <c r="C34" s="132"/>
-      <c r="D34" s="270"/>
+      <c r="D34" s="269"/>
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="268"/>
-      <c r="B35" s="269"/>
+      <c r="A35" s="267"/>
+      <c r="B35" s="268"/>
       <c r="C35" s="132"/>
-      <c r="D35" s="270"/>
+      <c r="D35" s="269"/>
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="268"/>
-      <c r="B36" s="269"/>
+      <c r="A36" s="267"/>
+      <c r="B36" s="268"/>
       <c r="C36" s="132"/>
-      <c r="D36" s="270"/>
+      <c r="D36" s="269"/>
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="268"/>
-      <c r="B37" s="269"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="268"/>
       <c r="C37" s="132"/>
-      <c r="D37" s="270"/>
+      <c r="D37" s="269"/>
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="268"/>
-      <c r="B38" s="269"/>
+      <c r="A38" s="267"/>
+      <c r="B38" s="268"/>
       <c r="C38" s="132"/>
-      <c r="D38" s="270"/>
+      <c r="D38" s="269"/>
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="268"/>
-      <c r="B39" s="269"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="268"/>
       <c r="C39" s="132"/>
-      <c r="D39" s="270"/>
+      <c r="D39" s="269"/>
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="268"/>
-      <c r="B40" s="269"/>
+      <c r="A40" s="267"/>
+      <c r="B40" s="268"/>
       <c r="C40" s="132"/>
-      <c r="D40" s="270"/>
+      <c r="D40" s="269"/>
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="268"/>
-      <c r="B41" s="269"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="268"/>
       <c r="C41" s="132"/>
-      <c r="D41" s="270"/>
+      <c r="D41" s="269"/>
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="270"/>
-      <c r="B42" s="271"/>
+      <c r="A42" s="269"/>
+      <c r="B42" s="270"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="270"/>
+      <c r="D42" s="269"/>
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12219,7 +12602,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12230,7 +12613,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12241,7 +12624,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12252,7 +12635,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12263,7 +12646,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12274,7 +12657,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12285,7 +12668,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12296,7 +12679,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12307,7 +12690,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12318,7 +12701,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12329,7 +12712,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12340,7 +12723,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12351,7 +12734,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12362,7 +12745,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12373,7 +12756,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12384,7 +12767,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12395,7 +12778,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12406,7 +12789,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12417,7 +12800,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12428,7 +12811,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12439,7 +12822,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12450,7 +12833,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12461,7 +12844,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12472,7 +12855,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12483,7 +12866,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12494,7 +12877,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12505,7 +12888,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12516,7 +12899,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12527,7 +12910,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12538,7 +12921,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12549,7 +12932,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12560,7 +12943,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12571,7 +12954,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12582,7 +12965,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12593,7 +12976,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12606,7 +12989,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12614,16 +12997,16 @@
       <c r="B79" s="232"/>
       <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>1038236.1799999999</v>
+        <v>1627189.3099999996</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>1044692.1799999999</v>
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>1038236.1799999999</v>
+        <v>582497.13</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -14590,23 +14973,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14616,21 +14999,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14645,14 +15028,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14662,11 +15045,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="290"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16150,11 +16533,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="316">
+      <c r="M40" s="315">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="300">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -16180,8 +16563,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="299"/>
-      <c r="N41" s="301"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16396,29 +16779,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="302" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="303"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="304">
+      <c r="K53" s="303">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="305"/>
-      <c r="M53" s="306">
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="307"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="308"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -16429,22 +16812,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="309" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="309"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="310" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="311"/>
-      <c r="K55" s="312">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="313"/>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16475,11 +16858,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="314">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="315"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16496,22 +16879,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="291" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="293" t="s">
+      <c r="I59" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="294"/>
-      <c r="K59" s="295">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="295"/>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17980,23 +18363,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18006,21 +18389,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18035,14 +18418,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18052,11 +18435,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="290"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19353,10 +19736,10 @@
       <c r="J34" s="73">
         <v>44627</v>
       </c>
-      <c r="K34" s="272" t="s">
+      <c r="K34" s="271" t="s">
         <v>321</v>
       </c>
-      <c r="L34" s="275">
+      <c r="L34" s="274">
         <v>1195.68</v>
       </c>
       <c r="M34" s="32">
@@ -19423,7 +19806,7 @@
       <c r="J36" s="73">
         <v>44645</v>
       </c>
-      <c r="K36" s="274" t="s">
+      <c r="K36" s="273" t="s">
         <v>318</v>
       </c>
       <c r="L36" s="80">
@@ -19458,7 +19841,7 @@
       <c r="J37" s="73">
         <v>44649</v>
       </c>
-      <c r="K37" s="273" t="s">
+      <c r="K37" s="272" t="s">
         <v>319</v>
       </c>
       <c r="L37" s="80">
@@ -19492,7 +19875,7 @@
       <c r="J38" s="73">
         <v>44649</v>
       </c>
-      <c r="K38" s="276" t="s">
+      <c r="K38" s="275" t="s">
         <v>190</v>
       </c>
       <c r="L38" s="80">
@@ -19554,11 +19937,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="298">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="300">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -19584,8 +19967,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="299"/>
-      <c r="N41" s="301"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19728,29 +20111,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="302" t="s">
+      <c r="H49" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="303"/>
+      <c r="I49" s="302"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="304">
+      <c r="K49" s="303">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="305"/>
-      <c r="M49" s="306">
+      <c r="L49" s="304"/>
+      <c r="M49" s="305">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="307"/>
+      <c r="N49" s="306"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="308" t="s">
+      <c r="D50" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="308"/>
+      <c r="E50" s="307"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -19761,22 +20144,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="309" t="s">
+      <c r="D51" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="309"/>
+      <c r="E51" s="308"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="310" t="s">
+      <c r="I51" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="311"/>
-      <c r="K51" s="312">
+      <c r="J51" s="310"/>
+      <c r="K51" s="311">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="313"/>
+      <c r="L51" s="312"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -19807,11 +20190,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="314">
+      <c r="K53" s="313">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="315"/>
+      <c r="L53" s="314"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -19828,22 +20211,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="291" t="s">
+      <c r="D55" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="292"/>
+      <c r="E55" s="291"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="293" t="s">
+      <c r="I55" s="292" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="294"/>
-      <c r="K55" s="295">
+      <c r="J55" s="293"/>
+      <c r="K55" s="294">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="295"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -21485,23 +21868,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21511,21 +21894,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21540,14 +21923,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21557,11 +21940,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="290"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23205,11 +23588,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="298">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="300">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -23241,8 +23624,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="299"/>
-      <c r="N41" s="301"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23477,29 +23860,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="302" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="303"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="304">
+      <c r="K53" s="303">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="305"/>
-      <c r="M53" s="306">
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="307"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="308"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -23510,22 +23893,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="309" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="309"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="310" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="311"/>
-      <c r="K55" s="312">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="313"/>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23556,11 +23939,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="314">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="315"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23577,22 +23960,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="291" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="293" t="s">
+      <c r="I59" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="294"/>
-      <c r="K59" s="295">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="295"/>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -23773,10 +24156,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23787,10 +24170,12 @@
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="117"/>
+    <col min="7" max="8" width="11.42578125" style="117"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="209" t="s">
         <v>27</v>
       </c>
@@ -23802,7 +24187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="210" t="s">
         <v>22</v>
       </c>
@@ -23822,7 +24207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="251">
         <v>44679</v>
       </c>
@@ -23843,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="251">
         <v>44679</v>
       </c>
@@ -23864,7 +24249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="251">
         <v>44680</v>
       </c>
@@ -23884,8 +24269,9 @@
         <f t="shared" ref="F5:F47" si="0">C5-E5+F4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="251">
         <v>44681</v>
       </c>
@@ -23907,7 +24293,7 @@
       </c>
       <c r="G6" s="162"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="251">
         <v>44681</v>
       </c>
@@ -23928,7 +24314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="248">
         <v>44652</v>
       </c>
@@ -23949,7 +24335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="248">
         <v>44653</v>
       </c>
@@ -23970,7 +24356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="248">
         <v>44655</v>
       </c>
@@ -23991,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="248">
         <v>44656</v>
       </c>
@@ -24012,7 +24398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="248">
         <v>44656</v>
       </c>
@@ -24034,7 +24420,7 @@
       </c>
       <c r="G12" s="162"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="248">
         <v>44657</v>
       </c>
@@ -24055,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="248">
         <v>44658</v>
       </c>
@@ -24076,7 +24462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="248">
         <v>44659</v>
       </c>
@@ -24097,7 +24483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="248">
         <v>44660</v>
       </c>
@@ -24456,7 +24842,7 @@
       </c>
       <c r="G32" s="162"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="248">
         <v>44674</v>
       </c>
@@ -24476,8 +24862,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I33" s="115"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="248">
         <v>44676</v>
       </c>
@@ -24497,8 +24884,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I34" s="115"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="248">
         <v>44677</v>
       </c>
@@ -24518,8 +24906,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="115"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="248">
         <v>44678</v>
       </c>
@@ -24539,8 +24928,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I36" s="115"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="248">
         <v>44679</v>
       </c>
@@ -24560,8 +24950,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I37" s="115"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="248">
         <v>44679</v>
       </c>
@@ -24581,8 +24972,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I38" s="115"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="248">
         <v>44680</v>
       </c>
@@ -24602,8 +24994,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I39" s="115"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="248" t="s">
         <v>274</v>
       </c>
@@ -24613,14 +25006,18 @@
       <c r="C40" s="115">
         <v>101114.1</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="195"/>
+      <c r="D40" s="215">
+        <v>44687</v>
+      </c>
+      <c r="E40" s="216">
+        <v>101114.1</v>
+      </c>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>101114.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="248" t="s">
         <v>274</v>
       </c>
@@ -24630,14 +25027,18 @@
       <c r="C41" s="115">
         <v>28591.200000000001</v>
       </c>
-      <c r="D41" s="200"/>
-      <c r="E41" s="195"/>
+      <c r="D41" s="215">
+        <v>44687</v>
+      </c>
+      <c r="E41" s="216">
+        <v>28591.200000000001</v>
+      </c>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="211"/>
       <c r="B42" s="194"/>
       <c r="C42" s="195"/>
@@ -24645,10 +25046,14 @@
       <c r="E42" s="195"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f>SUM(I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="163"/>
       <c r="B43" s="160"/>
       <c r="C43" s="86"/>
@@ -24656,10 +25061,10 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="164"/>
       <c r="B44" s="165"/>
       <c r="C44" s="166"/>
@@ -24667,10 +25072,10 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="164"/>
       <c r="B45" s="165"/>
       <c r="C45" s="166"/>
@@ -24678,10 +25083,10 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="164"/>
       <c r="B46" s="165"/>
       <c r="C46" s="166"/>
@@ -24689,10 +25094,10 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="164"/>
       <c r="B47" s="165"/>
       <c r="C47" s="166"/>
@@ -24700,10 +25105,10 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>129705.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="164"/>
       <c r="B48" s="165"/>
       <c r="C48" s="166"/>
@@ -24711,7 +25116,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" ref="F48:F78" si="1">C48-E48+F47</f>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24722,7 +25127,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24733,7 +25138,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24744,7 +25149,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24755,7 +25160,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24766,7 +25171,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24777,7 +25182,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24788,7 +25193,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24799,7 +25204,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24810,7 +25215,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24821,7 +25226,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24832,7 +25237,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24843,7 +25248,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24854,7 +25259,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24865,7 +25270,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24876,7 +25281,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24887,7 +25292,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24898,7 +25303,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24909,7 +25314,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24920,7 +25325,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24931,7 +25336,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24942,7 +25347,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24953,7 +25358,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24964,7 +25369,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24975,7 +25380,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24986,7 +25391,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24997,7 +25402,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25008,7 +25413,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25019,7 +25424,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25030,7 +25435,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25043,7 +25448,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -25056,11 +25461,11 @@
       <c r="D79" s="189"/>
       <c r="E79" s="178">
         <f>SUM(E3:E78)</f>
-        <v>2097788.1799999997</v>
+        <v>2227493.48</v>
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>129705.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -25241,23 +25646,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="278"/>
-      <c r="C1" s="280" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="279" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="279"/>
+      <c r="B2" s="278"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25267,21 +25672,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="283"/>
+      <c r="B3" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="282"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="284" t="s">
+      <c r="H3" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="284"/>
+      <c r="I3" s="283"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="289" t="s">
+      <c r="R3" s="288" t="s">
         <v>38</v>
       </c>
     </row>
@@ -25296,14 +25701,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="286"/>
-      <c r="H4" s="287" t="s">
+      <c r="F4" s="285"/>
+      <c r="H4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="288"/>
+      <c r="I4" s="287"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -25313,11 +25718,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="296" t="s">
+      <c r="P4" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="290"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="289"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26848,7 +27253,7 @@
       <c r="J39" s="73">
         <v>44710</v>
       </c>
-      <c r="K39" s="277" t="s">
+      <c r="K39" s="276" t="s">
         <v>320</v>
       </c>
       <c r="L39" s="75">
@@ -26881,11 +27286,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="298">
+      <c r="M40" s="297">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="300">
+      <c r="N40" s="299">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -26911,8 +27316,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="299"/>
-      <c r="N41" s="301"/>
+      <c r="M41" s="298"/>
+      <c r="N41" s="300"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -27127,29 +27532,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="302" t="s">
+      <c r="H53" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="303"/>
+      <c r="I53" s="302"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="304">
+      <c r="K53" s="303">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="305"/>
-      <c r="M53" s="306">
+      <c r="L53" s="304"/>
+      <c r="M53" s="305">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="307"/>
+      <c r="N53" s="306"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="308" t="s">
+      <c r="D54" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="308"/>
+      <c r="E54" s="307"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -27160,22 +27565,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="309" t="s">
+      <c r="D55" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="309"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="310" t="s">
+      <c r="I55" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="311"/>
-      <c r="K55" s="312">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="313"/>
+      <c r="L55" s="312"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -27206,11 +27611,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="314">
+      <c r="K57" s="313">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="315"/>
+      <c r="L57" s="314"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -27227,22 +27632,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="291" t="s">
+      <c r="D59" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="291"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="293" t="s">
+      <c r="I59" s="292" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="294"/>
-      <c r="K59" s="295">
+      <c r="J59" s="293"/>
+      <c r="K59" s="294">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="295"/>
+      <c r="L59" s="294"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="360">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1466,6 +1466,18 @@
   <si>
     <t>00960 D</t>
   </si>
+  <si>
+    <t>COMPRAS CENTRAL  R-4513-4519-4523-4528-4535-4545-4546-4560-</t>
+  </si>
+  <si>
+    <t>NOMINA # 25</t>
+  </si>
+  <si>
+    <t>ESTHER ALARCON Vacacione</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL  R-4575-4580-4600-4628-4629</t>
+  </si>
 </sst>
 </file>
 
@@ -1479,7 +1491,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,6 +1908,14 @@
       <b/>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2753,7 +2773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3267,6 +3287,21 @@
     <xf numFmtId="16" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="52" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3384,21 +3419,9 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="52" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6274,23 +6297,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="290"/>
+      <c r="C1" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="291"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6300,21 +6323,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="295"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="296"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="301" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6329,14 +6352,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="298"/>
+      <c r="H4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6346,11 +6369,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="309"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7851,11 +7874,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="297">
+      <c r="M40" s="310">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="312">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7881,8 +7904,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="311"/>
+      <c r="N41" s="313"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8097,29 +8120,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="315"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="316">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="317"/>
+      <c r="M53" s="318">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="319"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="320"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8130,22 +8153,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="323"/>
+      <c r="K55" s="324">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="325"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8176,11 +8199,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="326">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8197,22 +8220,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="303" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="305" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="306"/>
+      <c r="K59" s="307">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="307"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8451,10 +8474,10 @@
       <c r="C3" s="266">
         <v>12615</v>
       </c>
-      <c r="D3" s="317">
+      <c r="D3" s="278">
         <v>44687</v>
       </c>
-      <c r="E3" s="318">
+      <c r="E3" s="279">
         <v>12615</v>
       </c>
       <c r="F3" s="158">
@@ -8473,10 +8496,10 @@
       <c r="C4" s="132">
         <v>17596.349999999999</v>
       </c>
-      <c r="D4" s="317">
+      <c r="D4" s="278">
         <v>44687</v>
       </c>
-      <c r="E4" s="319">
+      <c r="E4" s="280">
         <v>17596.349999999999</v>
       </c>
       <c r="F4" s="196">
@@ -8495,10 +8518,10 @@
       <c r="C5" s="132">
         <v>74815.3</v>
       </c>
-      <c r="D5" s="317">
+      <c r="D5" s="278">
         <v>44687</v>
       </c>
-      <c r="E5" s="319">
+      <c r="E5" s="280">
         <v>74815.3</v>
       </c>
       <c r="F5" s="196">
@@ -8517,10 +8540,10 @@
       <c r="C6" s="132">
         <v>41825.300000000003</v>
       </c>
-      <c r="D6" s="317">
+      <c r="D6" s="278">
         <v>44687</v>
       </c>
-      <c r="E6" s="319">
+      <c r="E6" s="280">
         <v>41825.300000000003</v>
       </c>
       <c r="F6" s="196">
@@ -8540,10 +8563,10 @@
       <c r="C7" s="132">
         <v>16650.34</v>
       </c>
-      <c r="D7" s="317">
+      <c r="D7" s="278">
         <v>44687</v>
       </c>
-      <c r="E7" s="319">
+      <c r="E7" s="280">
         <v>16650.34</v>
       </c>
       <c r="F7" s="196">
@@ -8562,10 +8585,10 @@
       <c r="C8" s="132">
         <v>123347.09</v>
       </c>
-      <c r="D8" s="317">
+      <c r="D8" s="278">
         <v>44687</v>
       </c>
-      <c r="E8" s="319">
+      <c r="E8" s="280">
         <v>123347.09</v>
       </c>
       <c r="F8" s="196">
@@ -8584,10 +8607,10 @@
       <c r="C9" s="132">
         <v>8068.6</v>
       </c>
-      <c r="D9" s="317">
+      <c r="D9" s="278">
         <v>44687</v>
       </c>
-      <c r="E9" s="319">
+      <c r="E9" s="280">
         <v>8068.6</v>
       </c>
       <c r="F9" s="196">
@@ -8606,10 +8629,10 @@
       <c r="C10" s="132">
         <v>150685.6</v>
       </c>
-      <c r="D10" s="320" t="s">
+      <c r="D10" s="281" t="s">
         <v>344</v>
       </c>
-      <c r="E10" s="319">
+      <c r="E10" s="280">
         <f>108860.3+41825.3</f>
         <v>150685.6</v>
       </c>
@@ -8631,10 +8654,10 @@
       <c r="C11" s="132">
         <v>7806</v>
       </c>
-      <c r="D11" s="321">
+      <c r="D11" s="282">
         <v>44694</v>
       </c>
-      <c r="E11" s="324">
+      <c r="E11" s="285">
         <v>7806</v>
       </c>
       <c r="F11" s="196">
@@ -8655,10 +8678,10 @@
       <c r="C12" s="132">
         <v>3240</v>
       </c>
-      <c r="D12" s="321">
+      <c r="D12" s="282">
         <v>44694</v>
       </c>
-      <c r="E12" s="324">
+      <c r="E12" s="285">
         <v>3240</v>
       </c>
       <c r="F12" s="196">
@@ -8680,10 +8703,10 @@
       <c r="C13" s="132">
         <v>75100.639999999999</v>
       </c>
-      <c r="D13" s="321">
+      <c r="D13" s="282">
         <v>44694</v>
       </c>
-      <c r="E13" s="324">
+      <c r="E13" s="285">
         <v>75100.639999999999</v>
       </c>
       <c r="F13" s="196">
@@ -8704,10 +8727,10 @@
       <c r="C14" s="132">
         <v>119272.64</v>
       </c>
-      <c r="D14" s="321">
+      <c r="D14" s="282">
         <v>44694</v>
       </c>
-      <c r="E14" s="324">
+      <c r="E14" s="285">
         <v>119272.64</v>
       </c>
       <c r="F14" s="196">
@@ -8729,10 +8752,10 @@
       <c r="C15" s="132">
         <v>1299.5999999999999</v>
       </c>
-      <c r="D15" s="321">
+      <c r="D15" s="282">
         <v>44694</v>
       </c>
-      <c r="E15" s="324">
+      <c r="E15" s="285">
         <v>1299.5999999999999</v>
       </c>
       <c r="F15" s="196">
@@ -8750,10 +8773,10 @@
       <c r="C16" s="132">
         <v>25944</v>
       </c>
-      <c r="D16" s="321">
+      <c r="D16" s="282">
         <v>44694</v>
       </c>
-      <c r="E16" s="324">
+      <c r="E16" s="285">
         <v>25944</v>
       </c>
       <c r="F16" s="196">
@@ -8771,10 +8794,10 @@
       <c r="C17" s="132">
         <v>111401.12</v>
       </c>
-      <c r="D17" s="321">
+      <c r="D17" s="282">
         <v>44694</v>
       </c>
-      <c r="E17" s="324">
+      <c r="E17" s="285">
         <v>111401.12</v>
       </c>
       <c r="F17" s="196">
@@ -8792,10 +8815,10 @@
       <c r="C18" s="132">
         <v>35804.199999999997</v>
       </c>
-      <c r="D18" s="321">
+      <c r="D18" s="282">
         <v>44694</v>
       </c>
-      <c r="E18" s="324">
+      <c r="E18" s="285">
         <v>35804.199999999997</v>
       </c>
       <c r="F18" s="196">
@@ -8813,10 +8836,10 @@
       <c r="C19" s="132">
         <v>1607.16</v>
       </c>
-      <c r="D19" s="325">
+      <c r="D19" s="286">
         <v>44701</v>
       </c>
-      <c r="E19" s="326">
+      <c r="E19" s="287">
         <v>1607.16</v>
       </c>
       <c r="F19" s="196">
@@ -8834,10 +8857,10 @@
       <c r="C20" s="132">
         <v>110870.6</v>
       </c>
-      <c r="D20" s="325">
+      <c r="D20" s="286">
         <v>44701</v>
       </c>
-      <c r="E20" s="326">
+      <c r="E20" s="287">
         <v>110870.6</v>
       </c>
       <c r="F20" s="196">
@@ -8855,10 +8878,10 @@
       <c r="C21" s="132">
         <v>130766.36</v>
       </c>
-      <c r="D21" s="325">
+      <c r="D21" s="286">
         <v>44701</v>
       </c>
-      <c r="E21" s="326">
+      <c r="E21" s="287">
         <v>130766.36</v>
       </c>
       <c r="F21" s="196">
@@ -8876,10 +8899,10 @@
       <c r="C22" s="132">
         <v>114866.53</v>
       </c>
-      <c r="D22" s="325">
+      <c r="D22" s="286">
         <v>44701</v>
       </c>
-      <c r="E22" s="326">
+      <c r="E22" s="287">
         <v>114866.53</v>
       </c>
       <c r="F22" s="196">
@@ -8897,10 +8920,10 @@
       <c r="C23" s="132">
         <v>6227.2</v>
       </c>
-      <c r="D23" s="325">
+      <c r="D23" s="286">
         <v>44701</v>
       </c>
-      <c r="E23" s="326">
+      <c r="E23" s="287">
         <v>6227.2</v>
       </c>
       <c r="F23" s="196">
@@ -8918,10 +8941,10 @@
       <c r="C24" s="132">
         <v>66522.98</v>
       </c>
-      <c r="D24" s="325">
+      <c r="D24" s="286">
         <v>44701</v>
       </c>
-      <c r="E24" s="326">
+      <c r="E24" s="287">
         <v>66522.98</v>
       </c>
       <c r="F24" s="196">
@@ -8940,10 +8963,10 @@
       <c r="C25" s="132">
         <v>98570.79</v>
       </c>
-      <c r="D25" s="325">
+      <c r="D25" s="286">
         <v>44701</v>
       </c>
-      <c r="E25" s="326">
+      <c r="E25" s="287">
         <v>98570.79</v>
       </c>
       <c r="F25" s="196">
@@ -9151,10 +9174,10 @@
       <c r="C35" s="132">
         <v>133819.06</v>
       </c>
-      <c r="D35" s="322">
+      <c r="D35" s="283">
         <v>44715</v>
       </c>
-      <c r="E35" s="323">
+      <c r="E35" s="284">
         <v>133819.06</v>
       </c>
       <c r="F35" s="196">
@@ -9805,8 +9828,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9829,23 +9852,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="290"/>
+      <c r="C1" s="292" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="291"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9855,21 +9878,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="295"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="296"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="301" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9884,14 +9907,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="298"/>
+      <c r="H4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -9901,11 +9924,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="309"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -10595,24 +10618,29 @@
       <c r="E20" s="28">
         <v>44726</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>70660</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30">
         <v>44726</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>100</v>
+      </c>
       <c r="J20" s="38"/>
       <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>54910+15000</f>
+        <v>69910</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70660</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="1"/>
@@ -10626,30 +10654,36 @@
         <v>44727</v>
       </c>
       <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>3657</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="E21" s="28">
         <v>44727</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>41088</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="30">
         <v>44727</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>66</v>
+      </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <v>32365</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41088</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="1"/>
@@ -10663,30 +10697,37 @@
         <v>44728</v>
       </c>
       <c r="C22" s="26">
-        <v>0</v>
-      </c>
-      <c r="D22" s="36"/>
+        <v>400</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" s="28">
         <v>44728</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>87438</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="30">
         <v>44728</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>58</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>26857+40000+20000</f>
+        <v>86857</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87438</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="1"/>
@@ -10700,30 +10741,37 @@
         <v>44729</v>
       </c>
       <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36"/>
+        <v>21985</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>356</v>
+      </c>
       <c r="E23" s="28">
         <v>44729</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>90196</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="30">
         <v>44729</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>95</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>15000+42702</f>
+        <v>57702</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>10414</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90196</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="1"/>
@@ -10737,30 +10785,43 @@
         <v>44730</v>
       </c>
       <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="28">
         <v>44730</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>119596</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="30">
         <v>44730</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="31">
+        <v>326</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44730</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" s="63">
+        <v>9500</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>80000+20708</f>
+        <v>100708</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>9054</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119596</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="1"/>
@@ -10780,27 +10841,38 @@
       <c r="E25" s="28">
         <v>44731</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>139502</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="30">
         <v>44731</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
+      <c r="J25" s="64">
+        <v>44731</v>
+      </c>
+      <c r="K25" s="329" t="s">
+        <v>358</v>
+      </c>
+      <c r="L25" s="66">
+        <v>750</v>
+      </c>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>100000+20000+13277</f>
+        <v>133277</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>5475</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>139502</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="1"/>
@@ -10820,24 +10892,29 @@
       <c r="E26" s="28">
         <v>44732</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>69636</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="30">
         <v>44732</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>42</v>
+      </c>
       <c r="J26" s="38"/>
       <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>53594+16000</f>
+        <v>69594</v>
       </c>
       <c r="N26" s="33">
         <v>0</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69636</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="1"/>
@@ -10857,24 +10934,29 @@
       <c r="E27" s="28">
         <v>44733</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>81627</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44733</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>43</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <f>20000+61584</f>
+        <v>81584</v>
       </c>
       <c r="N27" s="33">
         <v>0</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81627</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="1"/>
@@ -10888,30 +10970,36 @@
         <v>44734</v>
       </c>
       <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="41"/>
+        <v>4031</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>312</v>
+      </c>
       <c r="E28" s="28">
         <v>44734</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>39410</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44734</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>100</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <v>35279</v>
       </c>
       <c r="N28" s="33">
         <v>0</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39410</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="1"/>
@@ -10931,24 +11019,29 @@
       <c r="E29" s="28">
         <v>44735</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>98023</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44735</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>91</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>50000+47932</f>
+        <v>97932</v>
       </c>
       <c r="N29" s="33">
         <v>0</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98023</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="1"/>
@@ -10962,30 +11055,37 @@
         <v>44736</v>
       </c>
       <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="71"/>
+        <v>21294</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>359</v>
+      </c>
       <c r="E30" s="28">
         <v>44736</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>74310</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="30">
         <v>44736</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>81</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>30000+22655</f>
+        <v>52655</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74310</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="1"/>
@@ -11335,21 +11435,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="297">
+      <c r="M40" s="310">
         <f>SUM(M5:M39)</f>
-        <v>1171601</v>
-      </c>
-      <c r="N40" s="299">
+        <v>1989464</v>
+      </c>
+      <c r="N40" s="312">
         <f>SUM(N5:N39)</f>
-        <v>47233</v>
+        <v>78229</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>1285599</v>
+        <v>2197085</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>1285599</v>
+        <v>2197085</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11365,8 +11465,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="311"/>
+      <c r="N41" s="313"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -11539,7 +11639,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>46697</v>
+        <v>98072</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -11547,7 +11647,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1260466</v>
+        <v>2171952</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -11555,7 +11655,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>1085</v>
+        <v>2087</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -11563,7 +11663,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>18983</v>
+        <v>29233</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -11581,32 +11681,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="315"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="316">
         <f>I51+L51</f>
-        <v>20068</v>
-      </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+        <v>31320</v>
+      </c>
+      <c r="L53" s="317"/>
+      <c r="M53" s="318">
         <f>N40+M40</f>
-        <v>1218834</v>
-      </c>
-      <c r="N53" s="306"/>
+        <v>2067693</v>
+      </c>
+      <c r="N53" s="319"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="320"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1193701</v>
+        <v>2042560</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -11614,22 +11714,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="323"/>
+      <c r="K55" s="324">
         <f>F57+F58+F59</f>
-        <v>1193701</v>
-      </c>
-      <c r="L55" s="312"/>
+        <v>2042560</v>
+      </c>
+      <c r="L55" s="325"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -11653,18 +11753,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1193701</v>
+        <v>2042560</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="326">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -11679,22 +11779,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="303" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="305" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="306"/>
+      <c r="K59" s="307">
         <f>K55+K57</f>
-        <v>1043762.19</v>
-      </c>
-      <c r="L59" s="294"/>
+        <v>1892621.19</v>
+      </c>
+      <c r="L59" s="307"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -11877,7 +11977,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -11936,10 +12036,10 @@
       <c r="C3" s="266">
         <v>180946.3</v>
       </c>
-      <c r="D3" s="327">
+      <c r="D3" s="288">
         <v>44715</v>
       </c>
-      <c r="E3" s="328">
+      <c r="E3" s="289">
         <v>180946.3</v>
       </c>
       <c r="F3" s="158">
@@ -11958,10 +12058,10 @@
       <c r="C4" s="132">
         <v>1893.9</v>
       </c>
-      <c r="D4" s="327">
+      <c r="D4" s="288">
         <v>44715</v>
       </c>
-      <c r="E4" s="323">
+      <c r="E4" s="284">
         <v>1893.9</v>
       </c>
       <c r="F4" s="196">
@@ -11980,10 +12080,10 @@
       <c r="C5" s="132">
         <v>19341.099999999999</v>
       </c>
-      <c r="D5" s="327">
+      <c r="D5" s="288">
         <v>44715</v>
       </c>
-      <c r="E5" s="323">
+      <c r="E5" s="284">
         <v>19341.099999999999</v>
       </c>
       <c r="F5" s="196">
@@ -12002,10 +12102,10 @@
       <c r="C6" s="132">
         <v>138862.93</v>
       </c>
-      <c r="D6" s="327">
+      <c r="D6" s="288">
         <v>44715</v>
       </c>
-      <c r="E6" s="323">
+      <c r="E6" s="284">
         <v>138862.93</v>
       </c>
       <c r="F6" s="196">
@@ -12025,10 +12125,10 @@
       <c r="C7" s="132">
         <v>92111.02</v>
       </c>
-      <c r="D7" s="327">
+      <c r="D7" s="288">
         <v>44715</v>
       </c>
-      <c r="E7" s="323">
+      <c r="E7" s="284">
         <v>92111.02</v>
       </c>
       <c r="F7" s="196">
@@ -12125,7 +12225,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="316">
+      <c r="J11" s="277">
         <f>SUM(J3:J10)</f>
         <v>0</v>
       </c>
@@ -14973,23 +15073,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="290"/>
+      <c r="C1" s="292" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="291"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14999,21 +15099,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="295"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="296"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="301" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15028,14 +15128,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="298"/>
+      <c r="H4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15045,11 +15145,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="309"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16533,11 +16633,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="315">
+      <c r="M40" s="328">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="312">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -16563,8 +16663,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="311"/>
+      <c r="N41" s="313"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16779,29 +16879,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="315"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="316">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="317"/>
+      <c r="M53" s="318">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="319"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="320"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -16812,22 +16912,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="323"/>
+      <c r="K55" s="324">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="325"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16858,11 +16958,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="326">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16879,22 +16979,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="303" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="305" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="306"/>
+      <c r="K59" s="307">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="307"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -18363,23 +18463,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="290"/>
+      <c r="C1" s="292" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="291"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18389,21 +18489,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="295"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="296"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="301" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18418,14 +18518,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="298"/>
+      <c r="H4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18435,11 +18535,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="309"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19937,11 +20037,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="297">
+      <c r="M40" s="310">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="312">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -19967,8 +20067,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="311"/>
+      <c r="N41" s="313"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -20111,29 +20211,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="301" t="s">
+      <c r="H49" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="302"/>
+      <c r="I49" s="315"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="303">
+      <c r="K49" s="316">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="304"/>
-      <c r="M49" s="305">
+      <c r="L49" s="317"/>
+      <c r="M49" s="318">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="306"/>
+      <c r="N49" s="319"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="307" t="s">
+      <c r="D50" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="307"/>
+      <c r="E50" s="320"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -20144,22 +20244,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="308" t="s">
+      <c r="D51" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="308"/>
+      <c r="E51" s="321"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="309" t="s">
+      <c r="I51" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="310"/>
-      <c r="K51" s="311">
+      <c r="J51" s="323"/>
+      <c r="K51" s="324">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="312"/>
+      <c r="L51" s="325"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -20190,11 +20290,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="313">
+      <c r="K53" s="326">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="314"/>
+      <c r="L53" s="327"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -20211,22 +20311,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="290" t="s">
+      <c r="D55" s="303" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="291"/>
+      <c r="E55" s="304"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="292" t="s">
+      <c r="I55" s="305" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="293"/>
-      <c r="K55" s="294">
+      <c r="J55" s="306"/>
+      <c r="K55" s="307">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="294"/>
+      <c r="L55" s="307"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -21868,23 +21968,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="290"/>
+      <c r="C1" s="292" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="291"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21894,21 +21994,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="295"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="296"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="301" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21923,14 +22023,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="298"/>
+      <c r="H4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21940,11 +22040,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="309"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23588,11 +23688,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="297">
+      <c r="M40" s="310">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="312">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -23624,8 +23724,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="311"/>
+      <c r="N41" s="313"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23860,29 +23960,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="315"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="316">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="317"/>
+      <c r="M53" s="318">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="319"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="320"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -23893,22 +23993,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="323"/>
+      <c r="K55" s="324">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="325"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23939,11 +24039,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="326">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23960,22 +24060,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="303" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="305" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="306"/>
+      <c r="K59" s="307">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="307"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -25646,23 +25746,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="277"/>
-      <c r="C1" s="279" t="s">
+      <c r="B1" s="290"/>
+      <c r="C1" s="292" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278"/>
+      <c r="B2" s="291"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25672,21 +25772,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="282"/>
+      <c r="B3" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="295"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="283" t="s">
+      <c r="H3" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="283"/>
+      <c r="I3" s="296"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="288" t="s">
+      <c r="R3" s="301" t="s">
         <v>38</v>
       </c>
     </row>
@@ -25701,14 +25801,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="284" t="s">
+      <c r="E4" s="297" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="285"/>
-      <c r="H4" s="286" t="s">
+      <c r="F4" s="298"/>
+      <c r="H4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="287"/>
+      <c r="I4" s="300"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -25718,11 +25818,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="296"/>
-      <c r="R4" s="289"/>
+      <c r="Q4" s="309"/>
+      <c r="R4" s="302"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -27286,11 +27386,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="297">
+      <c r="M40" s="310">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="299">
+      <c r="N40" s="312">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -27316,8 +27416,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="300"/>
+      <c r="M41" s="311"/>
+      <c r="N41" s="313"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -27532,29 +27632,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="301" t="s">
+      <c r="H53" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="302"/>
+      <c r="I53" s="315"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="303">
+      <c r="K53" s="316">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="304"/>
-      <c r="M53" s="305">
+      <c r="L53" s="317"/>
+      <c r="M53" s="318">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="306"/>
+      <c r="N53" s="319"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="307" t="s">
+      <c r="D54" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="307"/>
+      <c r="E54" s="320"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -27565,22 +27665,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="308" t="s">
+      <c r="D55" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="323"/>
+      <c r="K55" s="324">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="312"/>
+      <c r="L55" s="325"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -27611,11 +27711,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="313">
+      <c r="K57" s="326">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="314"/>
+      <c r="L57" s="327"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -27632,22 +27732,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="290" t="s">
+      <c r="D59" s="303" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="291"/>
+      <c r="E59" s="304"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="292" t="s">
+      <c r="I59" s="305" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="293"/>
-      <c r="K59" s="294">
+      <c r="J59" s="306"/>
+      <c r="K59" s="307">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="294"/>
+      <c r="L59" s="307"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="380">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1477,6 +1477,66 @@
   </si>
   <si>
     <t>COMPRAS CENTRAL  R-4575-4580-4600-4628-4629</t>
+  </si>
+  <si>
+    <t>NOMINA # 26</t>
+  </si>
+  <si>
+    <t>NOMINA # 27</t>
+  </si>
+  <si>
+    <t>SUELDO ESTHER</t>
+  </si>
+  <si>
+    <t>1132 D</t>
+  </si>
+  <si>
+    <t>1344 D</t>
+  </si>
+  <si>
+    <t>1485 D</t>
+  </si>
+  <si>
+    <t>1593 D</t>
+  </si>
+  <si>
+    <t>1680 D</t>
+  </si>
+  <si>
+    <t>1909 D</t>
+  </si>
+  <si>
+    <t>1952 D</t>
+  </si>
+  <si>
+    <t>2070 D</t>
+  </si>
+  <si>
+    <t>2216 D</t>
+  </si>
+  <si>
+    <t>2400 D</t>
+  </si>
+  <si>
+    <t>2603 D</t>
+  </si>
+  <si>
+    <t>2645 D</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASCULAS </t>
+  </si>
+  <si>
+    <t>JUNGHANNS</t>
+  </si>
+  <si>
+    <t>COMISIONES BANCO</t>
+  </si>
+  <si>
+    <t>JULIO</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2768,12 +2828,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3302,38 +3373,8 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="48" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3416,11 +3457,45 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6297,23 +6372,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="290"/>
-      <c r="C1" s="292" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="291"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6323,21 +6398,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="295"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="296"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="291" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6352,14 +6427,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="298"/>
-      <c r="H4" s="299" t="s">
+      <c r="F4" s="326"/>
+      <c r="H4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="300"/>
+      <c r="I4" s="328"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6369,11 +6444,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="292"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7874,11 +7949,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="300">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="302">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7904,8 +7979,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="301"/>
+      <c r="N41" s="303"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8120,29 +8195,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="305"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="306">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="307"/>
+      <c r="M53" s="308">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="310"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8153,22 +8228,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="313"/>
+      <c r="K55" s="314">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="315"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8199,11 +8274,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="316">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="317"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8220,22 +8295,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="295" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="296"/>
+      <c r="K59" s="297">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="297"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8379,6 +8454,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -8394,12 +8475,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9828,8 +9903,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9852,23 +9927,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="290"/>
-      <c r="C1" s="292" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="291"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9878,21 +9953,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="295"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="296"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="291" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9907,14 +9982,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="298"/>
-      <c r="H4" s="299" t="s">
+      <c r="F4" s="326"/>
+      <c r="H4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="300"/>
+      <c r="I4" s="328"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -9924,11 +9999,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="292"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -10009,7 +10084,7 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="34">
-        <f t="shared" ref="P6:P34" si="0">N6+M6+L6+I6+C6</f>
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
         <v>60715</v>
       </c>
       <c r="Q6" s="13">
@@ -10854,7 +10929,7 @@
       <c r="J25" s="64">
         <v>44731</v>
       </c>
-      <c r="K25" s="329" t="s">
+      <c r="K25" s="290" t="s">
         <v>358</v>
       </c>
       <c r="L25" s="66">
@@ -11105,24 +11180,35 @@
       <c r="E31" s="28">
         <v>44737</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>120166</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="30">
         <v>44737</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="31">
+        <v>127</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44737</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="L31" s="77">
+        <v>8800</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>54179+50000</f>
+        <v>104179</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>7060</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120166</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="1"/>
@@ -11142,24 +11228,29 @@
       <c r="E32" s="28">
         <v>44738</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>107843</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="30">
         <v>44738</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>46</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>90000+14200</f>
+        <v>104200</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>3597</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107843</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="1"/>
@@ -11181,24 +11272,29 @@
       <c r="E33" s="28">
         <v>44739</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="29">
+        <v>44190</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="30">
         <v>44739</v>
       </c>
-      <c r="I33" s="31"/>
+      <c r="I33" s="31">
+        <v>77</v>
+      </c>
       <c r="J33" s="73"/>
       <c r="K33" s="76"/>
       <c r="L33" s="80"/>
       <c r="M33" s="32">
-        <v>0</v>
+        <f>14000+30113</f>
+        <v>44113</v>
       </c>
       <c r="N33" s="33">
         <v>0</v>
       </c>
       <c r="P33" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44190</v>
       </c>
       <c r="Q33" s="13">
         <f t="shared" si="1"/>
@@ -11218,28 +11314,33 @@
       <c r="E34" s="28">
         <v>44740</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="29">
+        <v>78249</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="30">
         <v>44740</v>
       </c>
-      <c r="I34" s="31"/>
+      <c r="I34" s="31">
+        <v>94</v>
+      </c>
       <c r="J34" s="73"/>
       <c r="K34" s="81"/>
       <c r="L34" s="82"/>
       <c r="M34" s="32">
-        <v>0</v>
+        <f>20+53155+25000</f>
+        <v>78175</v>
       </c>
       <c r="N34" s="33">
         <v>0</v>
       </c>
       <c r="P34" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78269</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R34" s="9" t="s">
         <v>8</v>
@@ -11251,29 +11352,37 @@
         <v>44741</v>
       </c>
       <c r="C35" s="26">
-        <v>0</v>
-      </c>
-      <c r="D35" s="83"/>
+        <v>2200</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>312</v>
+      </c>
       <c r="E35" s="28">
         <v>44741</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="29">
+        <v>37880</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="30">
         <v>44741</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="31">
+        <v>163</v>
+      </c>
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
       <c r="L35" s="80"/>
       <c r="M35" s="32">
-        <v>0</v>
+        <f>15000+20517</f>
+        <v>35517</v>
       </c>
       <c r="N35" s="33">
         <v>0</v>
       </c>
       <c r="P35" s="34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>37880</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
@@ -11293,23 +11402,29 @@
       <c r="E36" s="28">
         <v>44742</v>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="29">
+        <v>86524</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="30">
         <v>44742</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="31">
+        <v>105</v>
+      </c>
       <c r="J36" s="73"/>
       <c r="K36" s="221"/>
       <c r="L36" s="80"/>
       <c r="M36" s="32">
-        <v>0</v>
+        <f>35000+47826</f>
+        <v>82826</v>
       </c>
       <c r="N36" s="33">
-        <v>0</v>
+        <v>3593</v>
       </c>
       <c r="P36" s="34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>86524</v>
       </c>
       <c r="Q36" s="13">
         <f t="shared" si="1"/>
@@ -11329,23 +11444,29 @@
       <c r="E37" s="28">
         <v>44743</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="29">
+        <v>115519</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="30">
         <v>44743</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="31">
+        <v>57</v>
+      </c>
       <c r="J37" s="73"/>
       <c r="K37" s="76"/>
       <c r="L37" s="80"/>
       <c r="M37" s="32">
-        <v>0</v>
+        <f>25000+60000+28073</f>
+        <v>113073</v>
       </c>
       <c r="N37" s="33">
-        <v>0</v>
+        <v>2389</v>
       </c>
       <c r="P37" s="34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115519</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
@@ -11358,29 +11479,41 @@
         <v>44744</v>
       </c>
       <c r="C38" s="26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D38" s="79"/>
       <c r="E38" s="28">
         <v>44744</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="29">
+        <v>94262</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="30">
         <v>44744</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="80"/>
+      <c r="I38" s="31">
+        <v>18</v>
+      </c>
+      <c r="J38" s="73">
+        <v>44744</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L38" s="80">
+        <v>9257</v>
+      </c>
       <c r="M38" s="32">
-        <v>0</v>
+        <f>40000+34953</f>
+        <v>74953</v>
       </c>
       <c r="N38" s="33">
-        <v>0</v>
+        <v>10014</v>
       </c>
       <c r="P38" s="34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>94262</v>
       </c>
       <c r="Q38" s="13">
         <f t="shared" si="1"/>
@@ -11399,23 +11532,35 @@
       <c r="E39" s="28">
         <v>44745</v>
       </c>
-      <c r="F39" s="85"/>
+      <c r="F39" s="85">
+        <v>148947</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="30">
         <v>44745</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="276"/>
-      <c r="L39" s="75"/>
+      <c r="I39" s="31">
+        <v>0</v>
+      </c>
+      <c r="J39" s="73">
+        <v>44745</v>
+      </c>
+      <c r="K39" s="276" t="s">
+        <v>362</v>
+      </c>
+      <c r="L39" s="75">
+        <v>286</v>
+      </c>
       <c r="M39" s="32">
-        <v>0</v>
+        <f>90000+45000+11189</f>
+        <v>146189</v>
       </c>
       <c r="N39" s="33">
-        <v>0</v>
+        <v>2472</v>
       </c>
       <c r="P39" s="34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>148947</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="1"/>
@@ -11435,21 +11580,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="300">
         <f>SUM(M5:M39)</f>
-        <v>1989464</v>
-      </c>
-      <c r="N40" s="312">
+        <v>2772689</v>
+      </c>
+      <c r="N40" s="302">
         <f>SUM(N5:N39)</f>
-        <v>78229</v>
+        <v>107354</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>2197085</v>
+        <v>3030685</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>2197085</v>
+        <v>3030685</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11462,15 +11607,21 @@
       <c r="G41" s="2"/>
       <c r="H41" s="260"/>
       <c r="I41" s="88"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="245"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="J41" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" s="245" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" s="75">
+        <v>638.99</v>
+      </c>
+      <c r="M41" s="301"/>
+      <c r="N41" s="303"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="159"/>
       <c r="C42" s="86"/>
@@ -11480,15 +11631,21 @@
       <c r="G42" s="261"/>
       <c r="H42" s="37"/>
       <c r="I42" s="95"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="80"/>
+      <c r="J42" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="L42" s="80">
+        <v>928</v>
+      </c>
       <c r="M42" s="96"/>
       <c r="N42" s="97"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="159"/>
       <c r="C43" s="86"/>
@@ -11498,15 +11655,21 @@
       <c r="G43" s="261"/>
       <c r="H43" s="37"/>
       <c r="I43" s="95"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="80"/>
+      <c r="J43" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="L43" s="80">
+        <v>1392</v>
+      </c>
       <c r="M43" s="96"/>
       <c r="N43" s="97"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="159"/>
       <c r="C44" s="86"/>
@@ -11516,15 +11679,21 @@
       <c r="G44" s="261"/>
       <c r="H44" s="37"/>
       <c r="I44" s="95"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="80"/>
+      <c r="J44" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" s="137" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" s="80">
+        <v>1907.04</v>
+      </c>
       <c r="M44" s="96"/>
       <c r="N44" s="97"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="159"/>
       <c r="C45" s="86"/>
@@ -11534,41 +11703,53 @@
       <c r="G45" s="261"/>
       <c r="H45" s="37"/>
       <c r="I45" s="95"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="80"/>
+      <c r="J45" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="L45" s="80">
+        <v>4043.82</v>
+      </c>
       <c r="M45" s="96"/>
       <c r="N45" s="97"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
       <c r="B46" s="263"/>
       <c r="C46" s="90"/>
       <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="94"/>
+      <c r="E46" s="330"/>
+      <c r="F46" s="245"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="95"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="80"/>
+      <c r="J46" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" s="331" t="s">
+        <v>204</v>
+      </c>
+      <c r="L46" s="80">
+        <v>927.48</v>
+      </c>
       <c r="M46" s="96"/>
       <c r="N46" s="97"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
       <c r="C47" s="90"/>
       <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="94"/>
+      <c r="E47" s="330"/>
+      <c r="F47" s="245"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="95"/>
       <c r="J47" s="73"/>
       <c r="K47" s="76"/>
@@ -11578,15 +11759,15 @@
       <c r="P47" s="34"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
       <c r="C48" s="90"/>
       <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="94"/>
+      <c r="E48" s="330"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="95"/>
       <c r="J48" s="73"/>
       <c r="K48" s="76"/>
@@ -11596,15 +11777,15 @@
       <c r="P48" s="34"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="90"/>
       <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="94"/>
+      <c r="E49" s="330"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="95"/>
       <c r="J49" s="73"/>
       <c r="K49" s="76"/>
@@ -11639,7 +11820,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>98072</v>
+        <v>100292</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -11647,7 +11828,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>2171952</v>
+        <v>3005532</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -11655,7 +11836,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2087</v>
+        <v>2774</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -11663,7 +11844,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>29233</v>
+        <v>57413.33</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -11681,32 +11862,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="305"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="306">
         <f>I51+L51</f>
-        <v>31320</v>
-      </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+        <v>60187.33</v>
+      </c>
+      <c r="L53" s="307"/>
+      <c r="M53" s="308">
         <f>N40+M40</f>
-        <v>2067693</v>
-      </c>
-      <c r="N53" s="319"/>
+        <v>2880043</v>
+      </c>
+      <c r="N53" s="309"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="310"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>2042560</v>
+        <v>2845052.67</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -11714,22 +11895,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="322" t="s">
+        <v>-2747780.48</v>
+      </c>
+      <c r="I55" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="313"/>
+      <c r="K55" s="314">
         <f>F57+F58+F59</f>
-        <v>2042560</v>
-      </c>
-      <c r="L55" s="325"/>
+        <v>375659.1</v>
+      </c>
+      <c r="L55" s="315"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -11753,18 +11934,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>2042560</v>
+        <v>97272.189999999944</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="316">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="317"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -11774,27 +11955,29 @@
         <v>19</v>
       </c>
       <c r="F58" s="132">
-        <v>0</v>
+        <v>46221</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="303" t="s">
+      <c r="C59" s="133">
+        <v>44745</v>
+      </c>
+      <c r="D59" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="305" t="s">
+        <v>232165.91</v>
+      </c>
+      <c r="I59" s="295" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="296"/>
+      <c r="K59" s="297">
         <f>K55+K57</f>
-        <v>1892621.19</v>
-      </c>
-      <c r="L59" s="307"/>
+        <v>225720.28999999998</v>
+      </c>
+      <c r="L59" s="297"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -11941,18 +12124,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -11962,6 +12133,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11977,8 +12160,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12511,7 +12694,7 @@
         <v>579770.73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="267">
         <v>44729</v>
       </c>
@@ -12528,137 +12711,209 @@
         <v>582497.13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="267"/>
-      <c r="B28" s="268"/>
-      <c r="C28" s="132"/>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="267">
+        <v>44730</v>
+      </c>
+      <c r="B28" s="268" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="132">
+        <v>14428.64</v>
+      </c>
       <c r="D28" s="269"/>
       <c r="E28" s="132"/>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="267"/>
-      <c r="B29" s="268"/>
-      <c r="C29" s="132"/>
+        <v>596925.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="267">
+        <v>44732</v>
+      </c>
+      <c r="B29" s="268" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="132">
+        <v>131512.62</v>
+      </c>
       <c r="D29" s="269"/>
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="267"/>
-      <c r="B30" s="268"/>
-      <c r="C30" s="132"/>
+        <v>728438.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="267">
+        <v>44733</v>
+      </c>
+      <c r="B30" s="268" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="132">
+        <v>68859.600000000006</v>
+      </c>
       <c r="D30" s="267"/>
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="267"/>
-      <c r="B31" s="268"/>
-      <c r="C31" s="132"/>
+        <v>797297.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="267">
+        <v>44734</v>
+      </c>
+      <c r="B31" s="268" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="132">
+        <v>42136.6</v>
+      </c>
       <c r="D31" s="269"/>
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="267"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="132"/>
+        <v>839434.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="267">
+        <v>44735</v>
+      </c>
+      <c r="B32" s="268" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="132">
+        <v>138883.07999999999</v>
+      </c>
       <c r="D32" s="269"/>
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>978317.66999999993</v>
       </c>
       <c r="G32" s="162"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="132"/>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="267">
+        <v>44737</v>
+      </c>
+      <c r="B33" s="268" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="132">
+        <v>181425.6</v>
+      </c>
       <c r="D33" s="269"/>
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="267"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="132"/>
+        <v>1159743.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="267">
+        <v>44737</v>
+      </c>
+      <c r="B34" s="268" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="132">
+        <v>6873.3</v>
+      </c>
       <c r="D34" s="269"/>
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1166616.57</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="267"/>
-      <c r="B35" s="268"/>
-      <c r="C35" s="132"/>
+      <c r="A35" s="267">
+        <v>44739</v>
+      </c>
+      <c r="B35" s="268" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="132">
+        <v>41033.42</v>
+      </c>
       <c r="D35" s="269"/>
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1207649.99</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="267"/>
-      <c r="B36" s="268"/>
-      <c r="C36" s="132"/>
+      <c r="A36" s="267">
+        <v>44740</v>
+      </c>
+      <c r="B36" s="268" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="132">
+        <v>133753.5</v>
+      </c>
       <c r="D36" s="269"/>
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1341403.49</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="267"/>
-      <c r="B37" s="268"/>
-      <c r="C37" s="132"/>
+      <c r="A37" s="267">
+        <v>44742</v>
+      </c>
+      <c r="B37" s="268" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="132">
+        <v>132774.54</v>
+      </c>
       <c r="D37" s="269"/>
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1474178.03</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="267"/>
-      <c r="B38" s="268"/>
-      <c r="C38" s="132"/>
+      <c r="A38" s="267">
+        <v>44743</v>
+      </c>
+      <c r="B38" s="268" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="132">
+        <v>86830.49</v>
+      </c>
       <c r="D38" s="269"/>
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1561008.52</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="267"/>
-      <c r="B39" s="268"/>
-      <c r="C39" s="132"/>
+      <c r="A39" s="267">
+        <v>44744</v>
+      </c>
+      <c r="B39" s="268" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="132">
+        <v>142079.78</v>
+      </c>
       <c r="D39" s="269"/>
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12669,7 +12924,7 @@
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12680,7 +12935,7 @@
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12691,7 +12946,7 @@
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -12702,7 +12957,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12713,7 +12968,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12724,7 +12979,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12735,7 +12990,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12746,7 +13001,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12757,7 +13012,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12768,7 +13023,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12779,7 +13034,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12790,7 +13045,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12801,7 +13056,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12812,7 +13067,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12823,7 +13078,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12834,7 +13089,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12845,7 +13100,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12856,7 +13111,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12867,7 +13122,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12878,7 +13133,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12889,7 +13144,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12900,7 +13155,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12911,7 +13166,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12922,7 +13177,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12933,7 +13188,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12944,7 +13199,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12955,7 +13210,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12966,7 +13221,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12977,7 +13232,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12988,7 +13243,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12999,7 +13254,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13010,7 +13265,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13021,7 +13276,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13032,7 +13287,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13043,7 +13298,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13054,7 +13309,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13065,7 +13320,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13076,7 +13331,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13089,7 +13344,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13097,7 +13352,7 @@
       <c r="B79" s="232"/>
       <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>1627189.3099999996</v>
+        <v>2747780.4799999995</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
@@ -13106,7 +13361,7 @@
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>582497.13</v>
+        <v>1703088.3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -15049,7 +15304,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -15073,23 +15328,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="290"/>
-      <c r="C1" s="292" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="291"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15099,21 +15354,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="295"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="296"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="291" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15128,14 +15383,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="298"/>
-      <c r="H4" s="299" t="s">
+      <c r="F4" s="326"/>
+      <c r="H4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="300"/>
+      <c r="I4" s="328"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15145,11 +15400,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="292"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16633,11 +16888,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="328">
+      <c r="M40" s="329">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="302">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -16663,8 +16918,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="301"/>
+      <c r="N41" s="303"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16879,29 +17134,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="305"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="306">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="307"/>
+      <c r="M53" s="308">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="310"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -16912,22 +17167,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="313"/>
+      <c r="K55" s="314">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="315"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16958,11 +17213,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="316">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="317"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16979,22 +17234,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="295" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="296"/>
+      <c r="K59" s="297">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="297"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17138,6 +17393,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17147,18 +17414,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18439,7 +18694,7 @@
   </sheetPr>
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -18463,23 +18718,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="290"/>
-      <c r="C1" s="292" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="291"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18489,21 +18744,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="295"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="296"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="291" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18518,14 +18773,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="298"/>
-      <c r="H4" s="299" t="s">
+      <c r="F4" s="326"/>
+      <c r="H4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="300"/>
+      <c r="I4" s="328"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18535,11 +18790,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="292"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -20037,11 +20292,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="300">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="302">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -20067,8 +20322,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="301"/>
+      <c r="N41" s="303"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -20211,29 +20466,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="314" t="s">
+      <c r="H49" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="315"/>
+      <c r="I49" s="305"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="316">
+      <c r="K49" s="306">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="317"/>
-      <c r="M49" s="318">
+      <c r="L49" s="307"/>
+      <c r="M49" s="308">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="319"/>
+      <c r="N49" s="309"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="320" t="s">
+      <c r="D50" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="320"/>
+      <c r="E50" s="310"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -20244,22 +20499,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="321" t="s">
+      <c r="D51" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="321"/>
+      <c r="E51" s="311"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="322" t="s">
+      <c r="I51" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="323"/>
-      <c r="K51" s="324">
+      <c r="J51" s="313"/>
+      <c r="K51" s="314">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="325"/>
+      <c r="L51" s="315"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -20290,11 +20545,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="326">
+      <c r="K53" s="316">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="327"/>
+      <c r="L53" s="317"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -20311,22 +20566,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="303" t="s">
+      <c r="D55" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="304"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="305" t="s">
+      <c r="I55" s="295" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="306"/>
-      <c r="K55" s="307">
+      <c r="J55" s="296"/>
+      <c r="K55" s="297">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="307"/>
+      <c r="L55" s="297"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -20473,18 +20728,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20494,6 +20737,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21944,7 +22199,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -21968,23 +22223,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="290"/>
-      <c r="C1" s="292" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="291"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21994,21 +22249,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="295"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="296"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="291" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22023,14 +22278,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="298"/>
-      <c r="H4" s="299" t="s">
+      <c r="F4" s="326"/>
+      <c r="H4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="300"/>
+      <c r="I4" s="328"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -22040,11 +22295,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="292"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23688,11 +23943,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="310">
+      <c r="M40" s="300">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="302">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -23724,8 +23979,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="301"/>
+      <c r="N41" s="303"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23960,29 +24215,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="305"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="306">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="307"/>
+      <c r="M53" s="308">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="310"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -23993,22 +24248,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="313"/>
+      <c r="K55" s="314">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="315"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -24039,11 +24294,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="316">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="317"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -24060,22 +24315,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="295" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="296"/>
+      <c r="K59" s="297">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="297"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -24222,18 +24477,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24243,6 +24486,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25720,7 +25975,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
@@ -25746,23 +26001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="290"/>
-      <c r="C1" s="292" t="s">
+      <c r="B1" s="318"/>
+      <c r="C1" s="320" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="291"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25772,21 +26027,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="295"/>
+      <c r="B3" s="322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="323"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="296"/>
+      <c r="I3" s="324"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="291" t="s">
         <v>38</v>
       </c>
     </row>
@@ -25801,14 +26056,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="297" t="s">
+      <c r="E4" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="298"/>
-      <c r="H4" s="299" t="s">
+      <c r="F4" s="326"/>
+      <c r="H4" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="300"/>
+      <c r="I4" s="328"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -25818,11 +26073,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="292"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -27386,11 +27641,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="300">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="302">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -27416,8 +27671,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="301"/>
+      <c r="N41" s="303"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -27632,29 +27887,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="304" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="305"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="306">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="307"/>
+      <c r="M53" s="308">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="309"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="310"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -27665,22 +27920,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="313"/>
+      <c r="K55" s="314">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="315"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -27711,11 +27966,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="316">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="317"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -27732,22 +27987,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="294"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="295" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="296"/>
+      <c r="K59" s="297">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="297"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -27894,6 +28149,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -27903,18 +28170,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE   HERRADURA  JUNIO      2022.xlsx
@@ -3376,6 +3376,43 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3457,45 +3494,8 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6372,23 +6372,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="318"/>
-      <c r="C1" s="320" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6398,21 +6398,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="323"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6427,14 +6427,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="H4" s="327" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6444,11 +6444,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="292"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7949,11 +7949,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="300">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="302">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7979,8 +7979,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="301"/>
-      <c r="N41" s="303"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8195,29 +8195,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="304" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="305"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="306">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="307"/>
-      <c r="M53" s="308">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="310" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="310"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8228,22 +8228,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="311" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="311"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="312" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="313"/>
-      <c r="K55" s="314">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="315"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8274,11 +8274,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="316">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="317"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8295,22 +8295,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="293" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="294"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="295" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="296"/>
-      <c r="K59" s="297">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="297"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8454,12 +8454,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -8475,6 +8469,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9903,8 +9903,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9927,23 +9927,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="318"/>
-      <c r="C1" s="320" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9953,21 +9953,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="323"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9982,14 +9982,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="H4" s="327" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -9999,11 +9999,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="292"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -11580,11 +11580,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="300">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="302">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -11616,8 +11616,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="301"/>
-      <c r="N41" s="303"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -11710,7 +11710,8 @@
         <v>378</v>
       </c>
       <c r="L45" s="80">
-        <v>4043.82</v>
+        <f>4043.82+481.97+22.39</f>
+        <v>4548.18</v>
       </c>
       <c r="M45" s="96"/>
       <c r="N45" s="97"/>
@@ -11722,7 +11723,7 @@
       <c r="B46" s="263"/>
       <c r="C46" s="90"/>
       <c r="D46" s="91"/>
-      <c r="E46" s="330"/>
+      <c r="E46" s="291"/>
       <c r="F46" s="245"/>
       <c r="G46" s="261"/>
       <c r="H46" s="37"/>
@@ -11730,7 +11731,7 @@
       <c r="J46" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="K46" s="331" t="s">
+      <c r="K46" s="292" t="s">
         <v>204</v>
       </c>
       <c r="L46" s="80">
@@ -11746,7 +11747,7 @@
       <c r="B47" s="25"/>
       <c r="C47" s="90"/>
       <c r="D47" s="91"/>
-      <c r="E47" s="330"/>
+      <c r="E47" s="291"/>
       <c r="F47" s="245"/>
       <c r="G47" s="261"/>
       <c r="H47" s="37"/>
@@ -11764,7 +11765,7 @@
       <c r="B48" s="25"/>
       <c r="C48" s="90"/>
       <c r="D48" s="91"/>
-      <c r="E48" s="330"/>
+      <c r="E48" s="291"/>
       <c r="F48" s="245"/>
       <c r="G48" s="261"/>
       <c r="H48" s="37"/>
@@ -11782,7 +11783,7 @@
       <c r="B49" s="25"/>
       <c r="C49" s="90"/>
       <c r="D49" s="91"/>
-      <c r="E49" s="330"/>
+      <c r="E49" s="291"/>
       <c r="F49" s="245"/>
       <c r="G49" s="261"/>
       <c r="H49" s="37"/>
@@ -11844,7 +11845,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>57413.33</v>
+        <v>57917.69</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -11862,32 +11863,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="304" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="305"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="306">
+      <c r="K53" s="319">
         <f>I51+L51</f>
-        <v>60187.33</v>
-      </c>
-      <c r="L53" s="307"/>
-      <c r="M53" s="308">
+        <v>60691.69</v>
+      </c>
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="310" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="310"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>2845052.67</v>
+        <v>2844548.31</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -11895,22 +11896,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="311" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="311"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="312" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="313"/>
-      <c r="K55" s="314">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
-        <v>375659.1</v>
-      </c>
-      <c r="L55" s="315"/>
+        <v>375154.74000000011</v>
+      </c>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -11934,18 +11935,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>97272.189999999944</v>
+        <v>96767.830000000075</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="316">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="317"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -11962,22 +11963,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="293" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="294"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="295" t="s">
-        <v>325</v>
-      </c>
-      <c r="J59" s="296"/>
-      <c r="K59" s="297">
+      <c r="I59" s="308" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
-        <v>225720.28999999998</v>
-      </c>
-      <c r="L59" s="297"/>
+        <v>225215.93000000011</v>
+      </c>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12124,6 +12125,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12133,18 +12146,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15328,23 +15329,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="318"/>
-      <c r="C1" s="320" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15354,21 +15355,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="323"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15383,14 +15384,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="H4" s="327" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15400,11 +15401,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="292"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16888,11 +16889,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="329">
+      <c r="M40" s="331">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="302">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -16918,8 +16919,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="301"/>
-      <c r="N41" s="303"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -17134,29 +17135,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="304" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="305"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="306">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="307"/>
-      <c r="M53" s="308">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="310" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="310"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -17167,22 +17168,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="311" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="311"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="312" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="313"/>
-      <c r="K55" s="314">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="315"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -17213,11 +17214,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="316">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="317"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -17234,22 +17235,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="293" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="294"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="295" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="296"/>
-      <c r="K59" s="297">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="297"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17393,18 +17394,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17414,6 +17403,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18718,23 +18719,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="318"/>
-      <c r="C1" s="320" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18744,21 +18745,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="323"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18773,14 +18774,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="H4" s="327" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18790,11 +18791,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="292"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -20292,11 +20293,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="300">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="302">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -20322,8 +20323,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="301"/>
-      <c r="N41" s="303"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -20466,29 +20467,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="304" t="s">
+      <c r="H49" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="305"/>
+      <c r="I49" s="318"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="306">
+      <c r="K49" s="319">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="307"/>
-      <c r="M49" s="308">
+      <c r="L49" s="320"/>
+      <c r="M49" s="321">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="309"/>
+      <c r="N49" s="322"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="310" t="s">
+      <c r="D50" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="310"/>
+      <c r="E50" s="323"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -20499,22 +20500,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="311" t="s">
+      <c r="D51" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="311"/>
+      <c r="E51" s="324"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="312" t="s">
+      <c r="I51" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="313"/>
-      <c r="K51" s="314">
+      <c r="J51" s="326"/>
+      <c r="K51" s="327">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="315"/>
+      <c r="L51" s="328"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -20545,11 +20546,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="316">
+      <c r="K53" s="329">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="317"/>
+      <c r="L53" s="330"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -20566,22 +20567,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="293" t="s">
+      <c r="D55" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="294"/>
+      <c r="E55" s="307"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="295" t="s">
+      <c r="I55" s="308" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="296"/>
-      <c r="K55" s="297">
+      <c r="J55" s="309"/>
+      <c r="K55" s="310">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="297"/>
+      <c r="L55" s="310"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -20728,6 +20729,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20737,18 +20750,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22223,23 +22224,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="318"/>
-      <c r="C1" s="320" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22249,21 +22250,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="323"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22278,14 +22279,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="H4" s="327" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -22295,11 +22296,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="292"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23943,11 +23944,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="300">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="302">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -23979,8 +23980,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="301"/>
-      <c r="N41" s="303"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -24215,29 +24216,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="304" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="305"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="306">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="307"/>
-      <c r="M53" s="308">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="310" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="310"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -24248,22 +24249,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="311" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="311"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="312" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="313"/>
-      <c r="K55" s="314">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="315"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -24294,11 +24295,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="316">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="317"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -24315,22 +24316,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="293" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="294"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="295" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="296"/>
-      <c r="K59" s="297">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="297"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -24477,6 +24478,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24486,18 +24499,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25975,10 +25976,10 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26001,23 +26002,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="318"/>
-      <c r="C1" s="320" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="319"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26027,21 +26028,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="323"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="324"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26056,14 +26057,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="H4" s="327" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="328"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -26073,11 +26074,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="292"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -27641,11 +27642,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="300">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="302">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -27671,8 +27672,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="301"/>
-      <c r="N41" s="303"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -27887,29 +27888,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="304" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="305"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="306">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="307"/>
-      <c r="M53" s="308">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="309"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="310" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="310"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -27920,22 +27921,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="311" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="311"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="312" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="313"/>
-      <c r="K55" s="314">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="315"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -27966,11 +27967,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="316">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="317"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -27987,22 +27988,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="293" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="294"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="295" t="s">
+      <c r="I59" s="308" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="296"/>
-      <c r="K59" s="297">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="297"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -28149,18 +28150,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28170,6 +28159,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
